--- a/Assets/8_Data/1_EnemyData.xlsx
+++ b/Assets/8_Data/1_EnemyData.xlsx
@@ -885,7 +885,7 @@
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1295,7 +1295,7 @@
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:O11"/>
+      <selection activeCell="L1" sqref="L1:Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1704,7 +1704,7 @@
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:O11"/>
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2113,7 +2113,7 @@
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:O11"/>
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Assets/8_Data/1_EnemyData.xlsx
+++ b/Assets/8_Data/1_EnemyData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17730" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17730"/>
   </bookViews>
   <sheets>
     <sheet name="Data_Enemy_Skeleton" sheetId="1" r:id="rId1"/>
@@ -884,8 +884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1021,8 +1021,14 @@
       <c r="H3">
         <v>1</v>
       </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
       <c r="J3">
         <v>4</v>
+      </c>
+      <c r="K3">
+        <v>7</v>
       </c>
       <c r="N3" t="b">
         <v>0</v>
@@ -1053,8 +1059,14 @@
       <c r="H4">
         <v>1</v>
       </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
       <c r="J4">
         <v>5</v>
+      </c>
+      <c r="K4">
+        <v>7</v>
       </c>
       <c r="N4" t="b">
         <v>0</v>
@@ -1085,8 +1097,14 @@
       <c r="H5">
         <v>1</v>
       </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
       <c r="J5">
         <v>6</v>
+      </c>
+      <c r="K5">
+        <v>7</v>
       </c>
       <c r="N5" t="b">
         <v>0</v>
@@ -1117,7 +1135,13 @@
       <c r="H6">
         <v>1</v>
       </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
       <c r="J6">
+        <v>7</v>
+      </c>
+      <c r="K6">
         <v>7</v>
       </c>
       <c r="N6" t="b">
@@ -1149,8 +1173,14 @@
       <c r="H7">
         <v>1</v>
       </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
       <c r="J7">
         <v>8</v>
+      </c>
+      <c r="K7">
+        <v>7</v>
       </c>
       <c r="N7" t="b">
         <v>0</v>
@@ -1181,8 +1211,14 @@
       <c r="H8">
         <v>1</v>
       </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
       <c r="J8">
         <v>9</v>
+      </c>
+      <c r="K8">
+        <v>7</v>
       </c>
       <c r="N8" t="b">
         <v>0</v>
@@ -1213,8 +1249,14 @@
       <c r="H9">
         <v>1</v>
       </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
       <c r="J9">
         <v>1</v>
+      </c>
+      <c r="K9">
+        <v>7</v>
       </c>
       <c r="N9" t="b">
         <v>0</v>
@@ -1245,8 +1287,14 @@
       <c r="H10">
         <v>1</v>
       </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
       <c r="J10">
         <v>3</v>
+      </c>
+      <c r="K10">
+        <v>7</v>
       </c>
       <c r="N10" t="b">
         <v>0</v>
@@ -1277,8 +1325,14 @@
       <c r="H11">
         <v>1</v>
       </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
       <c r="J11">
         <v>4</v>
+      </c>
+      <c r="K11">
+        <v>7</v>
       </c>
       <c r="N11" t="b">
         <v>0</v>
@@ -2112,8 +2166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2248,8 +2302,14 @@
       <c r="H3">
         <v>1</v>
       </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
       <c r="J3">
         <v>4</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
       </c>
       <c r="N3" t="b">
         <v>0</v>
@@ -2280,8 +2340,14 @@
       <c r="H4">
         <v>1</v>
       </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
       <c r="J4">
         <v>5</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
       </c>
       <c r="N4" t="b">
         <v>0</v>
@@ -2312,8 +2378,14 @@
       <c r="H5">
         <v>1</v>
       </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
       <c r="J5">
         <v>6</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
       </c>
       <c r="N5" t="b">
         <v>0</v>
@@ -2344,8 +2416,14 @@
       <c r="H6">
         <v>1</v>
       </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
       <c r="J6">
         <v>7</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
       </c>
       <c r="N6" t="b">
         <v>0</v>
@@ -2376,8 +2454,14 @@
       <c r="H7">
         <v>1</v>
       </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
       <c r="J7">
         <v>8</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
       </c>
       <c r="N7" t="b">
         <v>0</v>
@@ -2408,8 +2492,14 @@
       <c r="H8">
         <v>1</v>
       </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
       <c r="J8">
         <v>9</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
       </c>
       <c r="N8" t="b">
         <v>0</v>
@@ -2440,7 +2530,13 @@
       <c r="H9">
         <v>1</v>
       </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
       <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
         <v>1</v>
       </c>
       <c r="N9" t="b">
@@ -2472,8 +2568,14 @@
       <c r="H10">
         <v>1</v>
       </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
       <c r="J10">
         <v>3</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
       </c>
       <c r="N10" t="b">
         <v>0</v>
@@ -2504,8 +2606,14 @@
       <c r="H11">
         <v>1</v>
       </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
       <c r="J11">
         <v>4</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
       </c>
       <c r="N11" t="b">
         <v>0</v>

--- a/Assets/8_Data/1_EnemyData.xlsx
+++ b/Assets/8_Data/1_EnemyData.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity_Game\Evolver\Assets\8_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nghia\Documents\Evolver\Assets\8_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F2731E4-BA86-4ECD-8C91-21E4D11DFA20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17730"/>
+    <workbookView xWindow="-28920" yWindow="-15" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_Enemy_Skeleton" sheetId="1" r:id="rId1"/>
@@ -17,22 +18,33 @@
     <sheet name="Data_Enemy_Spider" sheetId="3" r:id="rId3"/>
     <sheet name="Data_Enemy_Bat" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Windows User</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -56,7 +68,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -80,7 +92,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -105,7 +117,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -134,12 +146,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Windows User</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -163,7 +175,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -187,7 +199,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -212,7 +224,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -241,12 +253,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Windows User</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -270,7 +282,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -294,7 +306,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -319,7 +331,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -348,12 +360,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Windows User</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -377,7 +389,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -401,7 +413,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -426,7 +438,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
       <text>
         <r>
           <rPr>
@@ -455,7 +467,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="22">
   <si>
     <t>Name</t>
   </si>
@@ -519,11 +531,14 @@
   <si>
     <t>ChaseDistance</t>
   </si>
+  <si>
+    <t>ItemDrop_Chest_Silver</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -566,8 +581,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -881,31 +897,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="5" width="17.42578125" customWidth="1"/>
-    <col min="6" max="6" width="28.42578125" customWidth="1"/>
-    <col min="7" max="7" width="20.85546875" customWidth="1"/>
-    <col min="8" max="9" width="27.28515625" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" customWidth="1"/>
-    <col min="13" max="13" width="16.42578125" customWidth="1"/>
-    <col min="14" max="14" width="22.42578125" customWidth="1"/>
-    <col min="15" max="15" width="25.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" customWidth="1"/>
+    <col min="4" max="5" width="17.44140625" customWidth="1"/>
+    <col min="6" max="6" width="28.44140625" customWidth="1"/>
+    <col min="7" max="7" width="20.88671875" customWidth="1"/>
+    <col min="8" max="9" width="27.33203125" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" customWidth="1"/>
+    <col min="12" max="12" width="22.6640625" customWidth="1"/>
+    <col min="13" max="13" width="16.44140625" customWidth="1"/>
+    <col min="14" max="14" width="22.44140625" customWidth="1"/>
+    <col min="15" max="15" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -952,7 +968,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -996,7 +1012,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1030,11 +1046,17 @@
       <c r="K3">
         <v>7</v>
       </c>
+      <c r="L3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="1">
+        <v>1</v>
+      </c>
       <c r="N3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1072,7 +1094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1110,7 +1132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1148,7 +1170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1186,7 +1208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1224,7 +1246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1262,7 +1284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1300,7 +1322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1345,30 +1367,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:Q26"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="5" width="17.42578125" customWidth="1"/>
-    <col min="6" max="6" width="28.42578125" customWidth="1"/>
-    <col min="7" max="7" width="20.85546875" customWidth="1"/>
-    <col min="8" max="9" width="27.28515625" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" customWidth="1"/>
-    <col min="13" max="13" width="16.42578125" customWidth="1"/>
-    <col min="14" max="14" width="22.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" customWidth="1"/>
+    <col min="4" max="5" width="17.44140625" customWidth="1"/>
+    <col min="6" max="6" width="28.44140625" customWidth="1"/>
+    <col min="7" max="7" width="20.88671875" customWidth="1"/>
+    <col min="8" max="9" width="27.33203125" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" customWidth="1"/>
+    <col min="12" max="12" width="15.109375" customWidth="1"/>
+    <col min="13" max="13" width="16.44140625" customWidth="1"/>
+    <col min="14" max="14" width="22.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1415,7 +1437,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1459,7 +1481,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1491,7 +1513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1523,7 +1545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1555,7 +1577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1587,7 +1609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1619,7 +1641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1651,7 +1673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1683,7 +1705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1715,7 +1737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1754,30 +1776,30 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="5" width="17.42578125" customWidth="1"/>
-    <col min="6" max="6" width="28.42578125" customWidth="1"/>
-    <col min="7" max="7" width="20.85546875" customWidth="1"/>
-    <col min="8" max="9" width="27.28515625" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" customWidth="1"/>
-    <col min="13" max="13" width="16.42578125" customWidth="1"/>
-    <col min="14" max="14" width="22.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" customWidth="1"/>
+    <col min="4" max="5" width="17.44140625" customWidth="1"/>
+    <col min="6" max="6" width="28.44140625" customWidth="1"/>
+    <col min="7" max="7" width="20.88671875" customWidth="1"/>
+    <col min="8" max="9" width="27.33203125" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" customWidth="1"/>
+    <col min="12" max="12" width="15.109375" customWidth="1"/>
+    <col min="13" max="13" width="16.44140625" customWidth="1"/>
+    <col min="14" max="14" width="22.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1824,7 +1846,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1868,7 +1890,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1900,7 +1922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1932,7 +1954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1964,7 +1986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1996,7 +2018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2028,7 +2050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2060,7 +2082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2092,7 +2114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2124,7 +2146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2163,30 +2185,30 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3:K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="5" width="17.42578125" customWidth="1"/>
-    <col min="6" max="6" width="28.42578125" customWidth="1"/>
-    <col min="7" max="7" width="20.85546875" customWidth="1"/>
-    <col min="8" max="9" width="27.28515625" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" customWidth="1"/>
-    <col min="13" max="13" width="16.42578125" customWidth="1"/>
-    <col min="14" max="14" width="22.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" customWidth="1"/>
+    <col min="4" max="5" width="17.44140625" customWidth="1"/>
+    <col min="6" max="6" width="28.44140625" customWidth="1"/>
+    <col min="7" max="7" width="20.88671875" customWidth="1"/>
+    <col min="8" max="9" width="27.33203125" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" customWidth="1"/>
+    <col min="12" max="12" width="15.109375" customWidth="1"/>
+    <col min="13" max="13" width="16.44140625" customWidth="1"/>
+    <col min="14" max="14" width="22.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2233,7 +2255,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2277,7 +2299,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2315,7 +2337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2353,7 +2375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2391,7 +2413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2429,7 +2451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2467,7 +2489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2505,7 +2527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2543,7 +2565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2581,7 +2603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>

--- a/Assets/8_Data/1_EnemyData.xlsx
+++ b/Assets/8_Data/1_EnemyData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nghia\Documents\Evolver\Assets\8_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F2731E4-BA86-4ECD-8C91-21E4D11DFA20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E0DAF6-2978-4DD3-9E3F-0AE8D03FD91E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-15" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-15" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_Enemy_Skeleton" sheetId="1" r:id="rId1"/>
@@ -900,7 +900,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
@@ -1370,8 +1370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1498,7 +1498,7 @@
         <v>30</v>
       </c>
       <c r="F3">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G3">
         <v>50</v>

--- a/Assets/8_Data/1_EnemyData.xlsx
+++ b/Assets/8_Data/1_EnemyData.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nghia\Documents\Evolver\Assets\8_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity_Game\Evolver\Assets\8_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E0DAF6-2978-4DD3-9E3F-0AE8D03FD91E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-15" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-15" windowWidth="29040" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="Data_Enemy_Skeleton" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="Data_Enemy_Spider" sheetId="3" r:id="rId3"/>
     <sheet name="Data_Enemy_Bat" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,12 +38,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Windows User</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -68,7 +67,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -92,7 +91,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -117,7 +116,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="O1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -146,12 +145,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Windows User</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -175,7 +174,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -199,7 +198,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -224,7 +223,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
+    <comment ref="O1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -253,12 +252,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Windows User</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -282,7 +281,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -306,7 +305,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -331,7 +330,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
+    <comment ref="O1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -360,12 +359,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Windows User</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -389,7 +388,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -413,7 +412,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -438,7 +437,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
+    <comment ref="O1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -538,7 +537,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -581,9 +580,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -897,31 +895,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" customWidth="1"/>
-    <col min="4" max="5" width="17.44140625" customWidth="1"/>
-    <col min="6" max="6" width="28.44140625" customWidth="1"/>
-    <col min="7" max="7" width="20.88671875" customWidth="1"/>
-    <col min="8" max="9" width="27.33203125" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" customWidth="1"/>
-    <col min="12" max="12" width="22.6640625" customWidth="1"/>
-    <col min="13" max="13" width="16.44140625" customWidth="1"/>
-    <col min="14" max="14" width="22.44140625" customWidth="1"/>
-    <col min="15" max="15" width="25.33203125" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="5" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="28.42578125" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" customWidth="1"/>
+    <col min="8" max="9" width="27.28515625" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" customWidth="1"/>
+    <col min="12" max="12" width="22.7109375" customWidth="1"/>
+    <col min="13" max="13" width="16.42578125" customWidth="1"/>
+    <col min="14" max="14" width="22.42578125" customWidth="1"/>
+    <col min="15" max="15" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -968,7 +966,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1012,7 +1010,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1029,16 +1027,16 @@
         <v>30</v>
       </c>
       <c r="F3">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G3">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J3">
         <v>4</v>
@@ -1049,14 +1047,14 @@
       <c r="L3" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="1">
-        <v>1</v>
+      <c r="M3">
+        <v>7</v>
       </c>
       <c r="N3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1090,11 +1088,14 @@
       <c r="K4">
         <v>7</v>
       </c>
+      <c r="M4">
+        <v>7</v>
+      </c>
       <c r="N4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1128,11 +1129,14 @@
       <c r="K5">
         <v>7</v>
       </c>
+      <c r="M5">
+        <v>7</v>
+      </c>
       <c r="N5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1166,11 +1170,14 @@
       <c r="K6">
         <v>7</v>
       </c>
+      <c r="M6">
+        <v>7</v>
+      </c>
       <c r="N6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1204,11 +1211,14 @@
       <c r="K7">
         <v>7</v>
       </c>
+      <c r="M7">
+        <v>7</v>
+      </c>
       <c r="N7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1242,11 +1252,14 @@
       <c r="K8">
         <v>7</v>
       </c>
+      <c r="M8">
+        <v>7</v>
+      </c>
       <c r="N8" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1280,11 +1293,14 @@
       <c r="K9">
         <v>7</v>
       </c>
+      <c r="M9">
+        <v>7</v>
+      </c>
       <c r="N9" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1318,11 +1334,14 @@
       <c r="K10">
         <v>7</v>
       </c>
+      <c r="M10">
+        <v>7</v>
+      </c>
       <c r="N10" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1367,30 +1386,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" customWidth="1"/>
-    <col min="4" max="5" width="17.44140625" customWidth="1"/>
-    <col min="6" max="6" width="28.44140625" customWidth="1"/>
-    <col min="7" max="7" width="20.88671875" customWidth="1"/>
-    <col min="8" max="9" width="27.33203125" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" customWidth="1"/>
-    <col min="12" max="12" width="15.109375" customWidth="1"/>
-    <col min="13" max="13" width="16.44140625" customWidth="1"/>
-    <col min="14" max="14" width="22.44140625" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="5" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="28.42578125" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" customWidth="1"/>
+    <col min="8" max="9" width="27.28515625" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" customWidth="1"/>
+    <col min="13" max="13" width="16.42578125" customWidth="1"/>
+    <col min="14" max="14" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1437,7 +1456,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1481,7 +1500,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1509,11 +1528,20 @@
       <c r="J3">
         <v>4</v>
       </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
       <c r="N3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1541,11 +1569,20 @@
       <c r="J4">
         <v>5</v>
       </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
       <c r="N4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1573,11 +1610,20 @@
       <c r="J5">
         <v>6</v>
       </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
       <c r="N5" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1605,11 +1651,20 @@
       <c r="J6">
         <v>7</v>
       </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
       <c r="N6" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1637,11 +1692,20 @@
       <c r="J7">
         <v>8</v>
       </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
       <c r="N7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1669,11 +1733,20 @@
       <c r="J8">
         <v>9</v>
       </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
       <c r="N8" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1701,11 +1774,20 @@
       <c r="J9">
         <v>1</v>
       </c>
+      <c r="L9">
+        <v>11</v>
+      </c>
+      <c r="M9">
+        <v>11</v>
+      </c>
       <c r="N9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1733,11 +1815,20 @@
       <c r="J10">
         <v>3</v>
       </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
       <c r="N10" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1765,8 +1856,17 @@
       <c r="J11">
         <v>4</v>
       </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
       <c r="N11" t="b">
         <v>0</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1776,30 +1876,30 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" customWidth="1"/>
-    <col min="4" max="5" width="17.44140625" customWidth="1"/>
-    <col min="6" max="6" width="28.44140625" customWidth="1"/>
-    <col min="7" max="7" width="20.88671875" customWidth="1"/>
-    <col min="8" max="9" width="27.33203125" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" customWidth="1"/>
-    <col min="12" max="12" width="15.109375" customWidth="1"/>
-    <col min="13" max="13" width="16.44140625" customWidth="1"/>
-    <col min="14" max="14" width="22.44140625" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="5" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="28.42578125" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" customWidth="1"/>
+    <col min="8" max="9" width="27.28515625" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" customWidth="1"/>
+    <col min="13" max="13" width="16.42578125" customWidth="1"/>
+    <col min="14" max="14" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1846,7 +1946,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1890,7 +1990,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1922,7 +2022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1954,7 +2054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1986,7 +2086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2018,7 +2118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2050,7 +2150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2082,7 +2182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2114,7 +2214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2146,7 +2246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2185,30 +2285,30 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3:K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" customWidth="1"/>
-    <col min="4" max="5" width="17.44140625" customWidth="1"/>
-    <col min="6" max="6" width="28.44140625" customWidth="1"/>
-    <col min="7" max="7" width="20.88671875" customWidth="1"/>
-    <col min="8" max="9" width="27.33203125" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" customWidth="1"/>
-    <col min="12" max="12" width="15.109375" customWidth="1"/>
-    <col min="13" max="13" width="16.44140625" customWidth="1"/>
-    <col min="14" max="14" width="22.44140625" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="5" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="28.42578125" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" customWidth="1"/>
+    <col min="8" max="9" width="27.28515625" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" customWidth="1"/>
+    <col min="13" max="13" width="16.42578125" customWidth="1"/>
+    <col min="14" max="14" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2255,7 +2355,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2299,7 +2399,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2337,7 +2437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2375,7 +2475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2413,7 +2513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2451,7 +2551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2489,7 +2589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2527,7 +2627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2565,7 +2665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2603,7 +2703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>

--- a/Assets/8_Data/1_EnemyData.xlsx
+++ b/Assets/8_Data/1_EnemyData.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity_Game\Evolver\Assets\8_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nghia\Documents\Evolver\Assets\8_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E0DAF6-2978-4DD3-9E3F-0AE8D03FD91E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-15" windowWidth="29040" windowHeight="16440"/>
+    <workbookView xWindow="-28920" yWindow="-15" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_Enemy_Skeleton" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
     <sheet name="Data_Enemy_Spider" sheetId="3" r:id="rId3"/>
     <sheet name="Data_Enemy_Bat" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,12 +39,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Windows User</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -67,7 +68,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -91,7 +92,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -116,7 +117,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -145,12 +146,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Windows User</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -174,7 +175,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -198,7 +199,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -223,7 +224,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -252,12 +253,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Windows User</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -281,7 +282,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -305,7 +306,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -330,7 +331,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -359,12 +360,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Windows User</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -388,7 +389,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -412,7 +413,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -437,7 +438,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
       <text>
         <r>
           <rPr>
@@ -537,7 +538,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -580,8 +581,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -895,31 +897,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="5" width="17.42578125" customWidth="1"/>
-    <col min="6" max="6" width="28.42578125" customWidth="1"/>
-    <col min="7" max="7" width="20.85546875" customWidth="1"/>
-    <col min="8" max="9" width="27.28515625" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" customWidth="1"/>
-    <col min="12" max="12" width="22.7109375" customWidth="1"/>
-    <col min="13" max="13" width="16.42578125" customWidth="1"/>
-    <col min="14" max="14" width="22.42578125" customWidth="1"/>
-    <col min="15" max="15" width="25.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" customWidth="1"/>
+    <col min="4" max="5" width="17.44140625" customWidth="1"/>
+    <col min="6" max="6" width="28.44140625" customWidth="1"/>
+    <col min="7" max="7" width="20.88671875" customWidth="1"/>
+    <col min="8" max="9" width="27.33203125" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" customWidth="1"/>
+    <col min="12" max="12" width="22.6640625" customWidth="1"/>
+    <col min="13" max="13" width="16.44140625" customWidth="1"/>
+    <col min="14" max="14" width="22.44140625" customWidth="1"/>
+    <col min="15" max="15" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -966,7 +968,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1010,7 +1012,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1027,16 +1029,16 @@
         <v>30</v>
       </c>
       <c r="F3">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G3">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J3">
         <v>4</v>
@@ -1047,14 +1049,14 @@
       <c r="L3" t="s">
         <v>21</v>
       </c>
-      <c r="M3">
-        <v>7</v>
+      <c r="M3" s="1">
+        <v>1</v>
       </c>
       <c r="N3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1088,14 +1090,11 @@
       <c r="K4">
         <v>7</v>
       </c>
-      <c r="M4">
-        <v>7</v>
-      </c>
       <c r="N4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1129,14 +1128,11 @@
       <c r="K5">
         <v>7</v>
       </c>
-      <c r="M5">
-        <v>7</v>
-      </c>
       <c r="N5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1170,14 +1166,11 @@
       <c r="K6">
         <v>7</v>
       </c>
-      <c r="M6">
-        <v>7</v>
-      </c>
       <c r="N6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1211,14 +1204,11 @@
       <c r="K7">
         <v>7</v>
       </c>
-      <c r="M7">
-        <v>7</v>
-      </c>
       <c r="N7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1252,14 +1242,11 @@
       <c r="K8">
         <v>7</v>
       </c>
-      <c r="M8">
-        <v>7</v>
-      </c>
       <c r="N8" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1293,14 +1280,11 @@
       <c r="K9">
         <v>7</v>
       </c>
-      <c r="M9">
-        <v>7</v>
-      </c>
       <c r="N9" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1334,14 +1318,11 @@
       <c r="K10">
         <v>7</v>
       </c>
-      <c r="M10">
-        <v>7</v>
-      </c>
       <c r="N10" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1386,30 +1367,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="5" width="17.42578125" customWidth="1"/>
-    <col min="6" max="6" width="28.42578125" customWidth="1"/>
-    <col min="7" max="7" width="20.85546875" customWidth="1"/>
-    <col min="8" max="9" width="27.28515625" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" customWidth="1"/>
-    <col min="13" max="13" width="16.42578125" customWidth="1"/>
-    <col min="14" max="14" width="22.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" customWidth="1"/>
+    <col min="4" max="5" width="17.44140625" customWidth="1"/>
+    <col min="6" max="6" width="28.44140625" customWidth="1"/>
+    <col min="7" max="7" width="20.88671875" customWidth="1"/>
+    <col min="8" max="9" width="27.33203125" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" customWidth="1"/>
+    <col min="12" max="12" width="15.109375" customWidth="1"/>
+    <col min="13" max="13" width="16.44140625" customWidth="1"/>
+    <col min="14" max="14" width="22.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1456,7 +1437,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1500,7 +1481,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1528,20 +1509,11 @@
       <c r="J3">
         <v>4</v>
       </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
       <c r="N3" t="b">
         <v>0</v>
       </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1569,20 +1541,11 @@
       <c r="J4">
         <v>5</v>
       </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
       <c r="N4" t="b">
         <v>0</v>
       </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1610,20 +1573,11 @@
       <c r="J5">
         <v>6</v>
       </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
       <c r="N5" t="b">
         <v>0</v>
       </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1651,20 +1605,11 @@
       <c r="J6">
         <v>7</v>
       </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
       <c r="N6" t="b">
         <v>0</v>
       </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1692,20 +1637,11 @@
       <c r="J7">
         <v>8</v>
       </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>1</v>
-      </c>
       <c r="N7" t="b">
         <v>0</v>
       </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1733,20 +1669,11 @@
       <c r="J8">
         <v>9</v>
       </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>1</v>
-      </c>
       <c r="N8" t="b">
         <v>0</v>
       </c>
-      <c r="O8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1774,20 +1701,11 @@
       <c r="J9">
         <v>1</v>
       </c>
-      <c r="L9">
-        <v>11</v>
-      </c>
-      <c r="M9">
-        <v>11</v>
-      </c>
       <c r="N9" t="b">
         <v>0</v>
       </c>
-      <c r="O9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1815,20 +1733,11 @@
       <c r="J10">
         <v>3</v>
       </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>1</v>
-      </c>
       <c r="N10" t="b">
         <v>0</v>
       </c>
-      <c r="O10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1856,17 +1765,8 @@
       <c r="J11">
         <v>4</v>
       </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>1</v>
-      </c>
       <c r="N11" t="b">
         <v>0</v>
-      </c>
-      <c r="O11">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1876,30 +1776,30 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="5" width="17.42578125" customWidth="1"/>
-    <col min="6" max="6" width="28.42578125" customWidth="1"/>
-    <col min="7" max="7" width="20.85546875" customWidth="1"/>
-    <col min="8" max="9" width="27.28515625" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" customWidth="1"/>
-    <col min="13" max="13" width="16.42578125" customWidth="1"/>
-    <col min="14" max="14" width="22.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" customWidth="1"/>
+    <col min="4" max="5" width="17.44140625" customWidth="1"/>
+    <col min="6" max="6" width="28.44140625" customWidth="1"/>
+    <col min="7" max="7" width="20.88671875" customWidth="1"/>
+    <col min="8" max="9" width="27.33203125" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" customWidth="1"/>
+    <col min="12" max="12" width="15.109375" customWidth="1"/>
+    <col min="13" max="13" width="16.44140625" customWidth="1"/>
+    <col min="14" max="14" width="22.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1946,7 +1846,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1990,7 +1890,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2022,7 +1922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2054,7 +1954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2086,7 +1986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2118,7 +2018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2150,7 +2050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2182,7 +2082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2214,7 +2114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2246,7 +2146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2285,30 +2185,30 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3:K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="5" width="17.42578125" customWidth="1"/>
-    <col min="6" max="6" width="28.42578125" customWidth="1"/>
-    <col min="7" max="7" width="20.85546875" customWidth="1"/>
-    <col min="8" max="9" width="27.28515625" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" customWidth="1"/>
-    <col min="13" max="13" width="16.42578125" customWidth="1"/>
-    <col min="14" max="14" width="22.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" customWidth="1"/>
+    <col min="4" max="5" width="17.44140625" customWidth="1"/>
+    <col min="6" max="6" width="28.44140625" customWidth="1"/>
+    <col min="7" max="7" width="20.88671875" customWidth="1"/>
+    <col min="8" max="9" width="27.33203125" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" customWidth="1"/>
+    <col min="12" max="12" width="15.109375" customWidth="1"/>
+    <col min="13" max="13" width="16.44140625" customWidth="1"/>
+    <col min="14" max="14" width="22.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2355,7 +2255,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2399,7 +2299,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2437,7 +2337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2475,7 +2375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2513,7 +2413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2551,7 +2451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2589,7 +2489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2627,7 +2527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2665,7 +2565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2703,7 +2603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>

--- a/Assets/8_Data/1_EnemyData.xlsx
+++ b/Assets/8_Data/1_EnemyData.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nghia\Documents\Evolver\Assets\8_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity_Game\Evolver\Assets\8_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E0DAF6-2978-4DD3-9E3F-0AE8D03FD91E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-15" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-15" windowWidth="29040" windowHeight="16440" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Data_Enemy_Skeleton" sheetId="1" r:id="rId1"/>
-    <sheet name="Data_Enemy_Mage" sheetId="2" r:id="rId2"/>
-    <sheet name="Data_Enemy_Spider" sheetId="3" r:id="rId3"/>
-    <sheet name="Data_Enemy_Bat" sheetId="4" r:id="rId4"/>
+    <sheet name="Data_Enemy_Bunny" sheetId="5" r:id="rId1"/>
+    <sheet name="Data_Enemy_Fledgling" sheetId="6" r:id="rId2"/>
+    <sheet name="Data_Enemy_MushRoom" sheetId="7" r:id="rId3"/>
+    <sheet name="Data_Enemy_Skeleton" sheetId="1" r:id="rId4"/>
+    <sheet name="Data_Enemy_Mage" sheetId="2" r:id="rId5"/>
+    <sheet name="Data_Enemy_Spider" sheetId="3" r:id="rId6"/>
+    <sheet name="Data_Enemy_Bat" sheetId="4" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,12 +41,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Windows User</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -68,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -92,7 +94,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -117,7 +119,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="N1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -146,12 +148,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Windows User</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -175,7 +177,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -199,7 +201,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -224,7 +226,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
+    <comment ref="N1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -253,12 +255,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Windows User</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -282,7 +284,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -306,7 +308,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -331,7 +333,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
+    <comment ref="N1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -360,12 +362,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Windows User</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -389,7 +391,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -413,7 +415,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -438,7 +440,328 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
+    <comment ref="O1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+ (1 ground=6)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Windows User</author>
+  </authors>
+  <commentList>
+    <comment ref="F1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+(&gt;10)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+(per second)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+(3.5 base)
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+ (1 ground=6)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Windows User</author>
+  </authors>
+  <commentList>
+    <comment ref="F1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+(&gt;10)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+(per second)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+(3.5 base)
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+ (1 ground=6)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Windows User</author>
+  </authors>
+  <commentList>
+    <comment ref="F1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+(&gt;10)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+(per second)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+(3.5 base)
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -467,7 +790,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="23">
   <si>
     <t>Name</t>
   </si>
@@ -534,11 +857,14 @@
   <si>
     <t>ItemDrop_Chest_Silver</t>
   </si>
+  <si>
+    <t>Exp</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -897,95 +1223,91 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3:M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" customWidth="1"/>
-    <col min="4" max="5" width="17.44140625" customWidth="1"/>
-    <col min="6" max="6" width="28.44140625" customWidth="1"/>
-    <col min="7" max="7" width="20.88671875" customWidth="1"/>
-    <col min="8" max="9" width="27.33203125" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" customWidth="1"/>
-    <col min="12" max="12" width="22.6640625" customWidth="1"/>
-    <col min="13" max="13" width="16.44140625" customWidth="1"/>
-    <col min="14" max="14" width="22.44140625" customWidth="1"/>
-    <col min="15" max="15" width="25.33203125" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="4" width="17.42578125" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" customWidth="1"/>
+    <col min="7" max="8" width="27.28515625" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" customWidth="1"/>
+    <col min="11" max="11" width="22.7109375" customWidth="1"/>
+    <col min="12" max="12" width="16.42578125" customWidth="1"/>
+    <col min="13" max="13" width="22.42578125" customWidth="1"/>
+    <col min="14" max="14" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="F1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="G1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="H1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="J1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
       </c>
       <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
         <v>13</v>
@@ -996,7 +1318,7 @@
       <c r="I2" t="s">
         <v>13</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>13</v>
       </c>
       <c r="L2" t="s">
@@ -1008,265 +1330,259 @@
       <c r="N2" t="s">
         <v>13</v>
       </c>
-      <c r="O2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
+      <c r="B3">
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E3">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F3">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="G3">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J3">
-        <v>4</v>
-      </c>
-      <c r="K3">
-        <v>7</v>
-      </c>
-      <c r="L3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="1">
-        <v>1</v>
-      </c>
-      <c r="N3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L3">
+        <v>7</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
+      <c r="B4">
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D4">
+        <v>50</v>
+      </c>
+      <c r="E4">
         <v>15</v>
       </c>
-      <c r="E4">
-        <v>50</v>
-      </c>
       <c r="F4">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="G4">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J4">
-        <v>5</v>
-      </c>
-      <c r="K4">
-        <v>7</v>
-      </c>
-      <c r="N4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="L4">
+        <v>7</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>8</v>
+      <c r="B5">
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E5">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="F5">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="G5">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J5">
-        <v>6</v>
-      </c>
-      <c r="K5">
-        <v>7</v>
-      </c>
-      <c r="N5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="L5">
+        <v>7</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>8</v>
+      <c r="B6">
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D6">
-        <v>25</v>
+        <v>111</v>
       </c>
       <c r="E6">
-        <v>111</v>
+        <v>20</v>
       </c>
       <c r="F6">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G6">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J6">
         <v>7</v>
       </c>
-      <c r="K6">
-        <v>7</v>
-      </c>
-      <c r="N6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L6">
+        <v>7</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>30</v>
+      </c>
+      <c r="D7">
+        <v>11</v>
+      </c>
+      <c r="E7">
+        <v>30</v>
+      </c>
+      <c r="F7">
+        <v>11</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
         <v>8</v>
       </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>30</v>
-      </c>
-      <c r="E7">
-        <v>11</v>
-      </c>
-      <c r="F7">
-        <v>30</v>
-      </c>
-      <c r="G7">
-        <v>11</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
       <c r="J7">
-        <v>8</v>
-      </c>
-      <c r="K7">
-        <v>7</v>
-      </c>
-      <c r="N7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="L7">
+        <v>7</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>8</v>
+      <c r="B8">
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="D8">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="F8">
+        <v>11</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>9</v>
+      </c>
+      <c r="J8">
+        <v>7</v>
+      </c>
+      <c r="L8">
+        <v>7</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
         <v>40</v>
       </c>
-      <c r="G8">
-        <v>11</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>9</v>
-      </c>
-      <c r="K8">
-        <v>7</v>
-      </c>
-      <c r="N8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9">
-        <v>3</v>
-      </c>
       <c r="D9">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="F9">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="G9">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1275,89 +1591,89 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9">
-        <v>7</v>
-      </c>
-      <c r="N9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="L9">
+        <v>7</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
-        <v>8</v>
+      <c r="B10">
+        <v>3</v>
       </c>
       <c r="C10">
+        <v>45</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>60</v>
+      </c>
+      <c r="F10">
+        <v>11</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
         <v>3</v>
       </c>
-      <c r="D10">
-        <v>45</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>60</v>
-      </c>
-      <c r="G10">
-        <v>11</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
       <c r="J10">
-        <v>3</v>
-      </c>
-      <c r="K10">
-        <v>7</v>
-      </c>
-      <c r="N10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="L10">
+        <v>7</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
-        <v>8</v>
+      <c r="B11">
+        <v>3</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="D11">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="F11">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="G11">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J11">
-        <v>4</v>
-      </c>
-      <c r="K11">
-        <v>7</v>
-      </c>
-      <c r="N11" t="b">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="L11">
+        <v>7</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1367,94 +1683,91 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L20" activeCellId="1" sqref="K3:M11 L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" customWidth="1"/>
-    <col min="4" max="5" width="17.44140625" customWidth="1"/>
-    <col min="6" max="6" width="28.44140625" customWidth="1"/>
-    <col min="7" max="7" width="20.88671875" customWidth="1"/>
-    <col min="8" max="9" width="27.33203125" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" customWidth="1"/>
-    <col min="12" max="12" width="15.109375" customWidth="1"/>
-    <col min="13" max="13" width="16.44140625" customWidth="1"/>
-    <col min="14" max="14" width="22.44140625" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="4" width="17.42578125" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" customWidth="1"/>
+    <col min="7" max="8" width="27.28515625" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" customWidth="1"/>
+    <col min="11" max="11" width="22.7109375" customWidth="1"/>
+    <col min="12" max="12" width="16.42578125" customWidth="1"/>
+    <col min="13" max="13" width="22.42578125" customWidth="1"/>
+    <col min="14" max="14" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="F1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="G1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="H1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="J1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
       </c>
       <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
         <v>13</v>
@@ -1465,7 +1778,7 @@
       <c r="I2" t="s">
         <v>13</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>13</v>
       </c>
       <c r="L2" t="s">
@@ -1477,296 +1790,350 @@
       <c r="N2" t="s">
         <v>13</v>
       </c>
-      <c r="O2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>14</v>
+      <c r="B3">
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E3">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F3">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="G3">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
+      <c r="I3">
+        <v>4</v>
+      </c>
       <c r="J3">
-        <v>4</v>
-      </c>
-      <c r="N3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="K3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3">
+        <v>7</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>14</v>
+      <c r="B4">
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D4">
+        <v>50</v>
+      </c>
+      <c r="E4">
         <v>15</v>
       </c>
-      <c r="E4">
-        <v>50</v>
-      </c>
       <c r="F4">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="G4">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
+      <c r="I4">
+        <v>5</v>
+      </c>
       <c r="J4">
-        <v>5</v>
-      </c>
-      <c r="N4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="L4">
+        <v>7</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>14</v>
+      <c r="B5">
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E5">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="F5">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="G5">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
+      <c r="I5">
+        <v>6</v>
+      </c>
       <c r="J5">
-        <v>6</v>
-      </c>
-      <c r="N5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="L5">
+        <v>7</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>14</v>
+      <c r="B6">
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>111</v>
       </c>
       <c r="D6">
-        <v>25</v>
+        <v>111</v>
       </c>
       <c r="E6">
-        <v>111</v>
+        <v>20</v>
       </c>
       <c r="F6">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G6">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
+      <c r="I6">
+        <v>7</v>
+      </c>
       <c r="J6">
         <v>7</v>
       </c>
-      <c r="N6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L6">
+        <v>7</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>14</v>
+      <c r="B7">
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="D7">
+        <v>11</v>
+      </c>
+      <c r="E7">
         <v>30</v>
       </c>
-      <c r="E7">
-        <v>11</v>
-      </c>
       <c r="F7">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="G7">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
+      <c r="I7">
+        <v>8</v>
+      </c>
       <c r="J7">
-        <v>8</v>
-      </c>
-      <c r="N7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="L7">
+        <v>7</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>14</v>
+      <c r="B8">
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="D8">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="F8">
+        <v>11</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>9</v>
+      </c>
+      <c r="J8">
+        <v>7</v>
+      </c>
+      <c r="L8">
+        <v>7</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
         <v>40</v>
       </c>
-      <c r="G8">
-        <v>11</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>9</v>
-      </c>
-      <c r="N8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9">
-        <v>3</v>
-      </c>
       <c r="D9">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="F9">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="G9">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
       <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="N9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="L9">
+        <v>7</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
-        <v>14</v>
+      <c r="B10">
+        <v>3</v>
       </c>
       <c r="C10">
+        <v>45</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>60</v>
+      </c>
+      <c r="F10">
+        <v>11</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
         <v>3</v>
       </c>
-      <c r="D10">
-        <v>45</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>60</v>
-      </c>
-      <c r="G10">
-        <v>11</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
       <c r="J10">
-        <v>3</v>
-      </c>
-      <c r="N10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="L10">
+        <v>7</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
-        <v>14</v>
+      <c r="B11">
+        <v>3</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="D11">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="F11">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="G11">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
+      <c r="I11">
+        <v>4</v>
+      </c>
       <c r="J11">
-        <v>4</v>
-      </c>
-      <c r="N11" t="b">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="L11">
+        <v>7</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1776,94 +2143,91 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:O11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" customWidth="1"/>
-    <col min="4" max="5" width="17.44140625" customWidth="1"/>
-    <col min="6" max="6" width="28.44140625" customWidth="1"/>
-    <col min="7" max="7" width="20.88671875" customWidth="1"/>
-    <col min="8" max="9" width="27.33203125" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" customWidth="1"/>
-    <col min="12" max="12" width="15.109375" customWidth="1"/>
-    <col min="13" max="13" width="16.44140625" customWidth="1"/>
-    <col min="14" max="14" width="22.44140625" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="4" width="17.42578125" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" customWidth="1"/>
+    <col min="7" max="8" width="27.28515625" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" customWidth="1"/>
+    <col min="11" max="11" width="22.7109375" customWidth="1"/>
+    <col min="12" max="12" width="16.42578125" customWidth="1"/>
+    <col min="13" max="13" width="22.42578125" customWidth="1"/>
+    <col min="14" max="14" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="F1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="G1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="H1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="J1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
       </c>
       <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
         <v>13</v>
@@ -1874,7 +2238,7 @@
       <c r="I2" t="s">
         <v>13</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>13</v>
       </c>
       <c r="L2" t="s">
@@ -1886,296 +2250,350 @@
       <c r="N2" t="s">
         <v>13</v>
       </c>
-      <c r="O2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>16</v>
+      <c r="B3">
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E3">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F3">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="G3">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
+      <c r="I3">
+        <v>4</v>
+      </c>
       <c r="J3">
-        <v>4</v>
-      </c>
-      <c r="N3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="K3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3">
+        <v>7</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>16</v>
+      <c r="B4">
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D4">
+        <v>50</v>
+      </c>
+      <c r="E4">
         <v>15</v>
       </c>
-      <c r="E4">
-        <v>50</v>
-      </c>
       <c r="F4">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="G4">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
+      <c r="I4">
+        <v>5</v>
+      </c>
       <c r="J4">
-        <v>5</v>
-      </c>
-      <c r="N4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="L4">
+        <v>7</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>60</v>
+      </c>
+      <c r="E5">
         <v>16</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>20</v>
-      </c>
-      <c r="E5">
-        <v>60</v>
-      </c>
       <c r="F5">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="G5">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
+      <c r="I5">
+        <v>6</v>
+      </c>
       <c r="J5">
-        <v>6</v>
-      </c>
-      <c r="N5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="L5">
+        <v>7</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>16</v>
+      <c r="B6">
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D6">
-        <v>25</v>
+        <v>111</v>
       </c>
       <c r="E6">
-        <v>111</v>
+        <v>20</v>
       </c>
       <c r="F6">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G6">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
+      <c r="I6">
+        <v>7</v>
+      </c>
       <c r="J6">
         <v>7</v>
       </c>
-      <c r="N6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L6">
+        <v>7</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>16</v>
+      <c r="B7">
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="D7">
+        <v>11</v>
+      </c>
+      <c r="E7">
         <v>30</v>
       </c>
-      <c r="E7">
-        <v>11</v>
-      </c>
       <c r="F7">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="G7">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
+      <c r="I7">
+        <v>8</v>
+      </c>
       <c r="J7">
-        <v>8</v>
-      </c>
-      <c r="N7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="L7">
+        <v>7</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>16</v>
+      <c r="B8">
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="D8">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="F8">
+        <v>11</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>9</v>
+      </c>
+      <c r="J8">
+        <v>7</v>
+      </c>
+      <c r="L8">
+        <v>7</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
         <v>40</v>
       </c>
-      <c r="G8">
-        <v>11</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>9</v>
-      </c>
-      <c r="N8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9">
-        <v>3</v>
-      </c>
       <c r="D9">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="F9">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="G9">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
       <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="N9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="L9">
+        <v>7</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
-        <v>16</v>
+      <c r="B10">
+        <v>3</v>
       </c>
       <c r="C10">
+        <v>45</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>60</v>
+      </c>
+      <c r="F10">
+        <v>11</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
         <v>3</v>
       </c>
-      <c r="D10">
-        <v>45</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>60</v>
-      </c>
-      <c r="G10">
-        <v>11</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
       <c r="J10">
-        <v>3</v>
-      </c>
-      <c r="N10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="L10">
+        <v>7</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
-        <v>16</v>
+      <c r="B11">
+        <v>3</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="D11">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="F11">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="G11">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
+      <c r="I11">
+        <v>4</v>
+      </c>
       <c r="J11">
-        <v>4</v>
-      </c>
-      <c r="N11" t="b">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="L11">
+        <v>7</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2185,30 +2603,1318 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O11"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F17" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="5" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="28.42578125" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" customWidth="1"/>
+    <col min="8" max="9" width="27.28515625" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" customWidth="1"/>
+    <col min="12" max="12" width="22.7109375" customWidth="1"/>
+    <col min="13" max="13" width="16.42578125" customWidth="1"/>
+    <col min="14" max="14" width="22.42578125" customWidth="1"/>
+    <col min="15" max="15" width="25.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>30</v>
+      </c>
+      <c r="F3">
+        <v>13</v>
+      </c>
+      <c r="G3">
+        <v>50</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>4</v>
+      </c>
+      <c r="K3">
+        <v>7</v>
+      </c>
+      <c r="L3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="1">
+        <v>1</v>
+      </c>
+      <c r="N3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>15</v>
+      </c>
+      <c r="E4">
+        <v>50</v>
+      </c>
+      <c r="F4">
+        <v>15</v>
+      </c>
+      <c r="G4">
+        <v>60</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>5</v>
+      </c>
+      <c r="K4">
+        <v>7</v>
+      </c>
+      <c r="N4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>60</v>
+      </c>
+      <c r="F5">
+        <v>16</v>
+      </c>
+      <c r="G5">
+        <v>70</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>6</v>
+      </c>
+      <c r="K5">
+        <v>7</v>
+      </c>
+      <c r="N5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>25</v>
+      </c>
+      <c r="E6">
+        <v>111</v>
+      </c>
+      <c r="F6">
+        <v>20</v>
+      </c>
+      <c r="G6">
+        <v>100</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>7</v>
+      </c>
+      <c r="K6">
+        <v>7</v>
+      </c>
+      <c r="N6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>30</v>
+      </c>
+      <c r="E7">
+        <v>11</v>
+      </c>
+      <c r="F7">
+        <v>30</v>
+      </c>
+      <c r="G7">
+        <v>11</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>8</v>
+      </c>
+      <c r="K7">
+        <v>7</v>
+      </c>
+      <c r="N7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>35</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>40</v>
+      </c>
+      <c r="G8">
+        <v>11</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>9</v>
+      </c>
+      <c r="K8">
+        <v>7</v>
+      </c>
+      <c r="N8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>40</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>50</v>
+      </c>
+      <c r="G9">
+        <v>11</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>7</v>
+      </c>
+      <c r="N9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>45</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>60</v>
+      </c>
+      <c r="G10">
+        <v>11</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>3</v>
+      </c>
+      <c r="K10">
+        <v>7</v>
+      </c>
+      <c r="N10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>50</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>70</v>
+      </c>
+      <c r="G11">
+        <v>11</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>4</v>
+      </c>
+      <c r="K11">
+        <v>7</v>
+      </c>
+      <c r="N11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="5" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="28.42578125" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" customWidth="1"/>
+    <col min="8" max="9" width="27.28515625" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" customWidth="1"/>
+    <col min="13" max="13" width="16.42578125" customWidth="1"/>
+    <col min="14" max="14" width="22.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>30</v>
+      </c>
+      <c r="F3">
+        <v>8</v>
+      </c>
+      <c r="G3">
+        <v>50</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>4</v>
+      </c>
+      <c r="N3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>15</v>
+      </c>
+      <c r="E4">
+        <v>50</v>
+      </c>
+      <c r="F4">
+        <v>15</v>
+      </c>
+      <c r="G4">
+        <v>60</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>5</v>
+      </c>
+      <c r="N4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>60</v>
+      </c>
+      <c r="F5">
+        <v>16</v>
+      </c>
+      <c r="G5">
+        <v>70</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>6</v>
+      </c>
+      <c r="N5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>25</v>
+      </c>
+      <c r="E6">
+        <v>111</v>
+      </c>
+      <c r="F6">
+        <v>20</v>
+      </c>
+      <c r="G6">
+        <v>100</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>7</v>
+      </c>
+      <c r="N6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>30</v>
+      </c>
+      <c r="E7">
+        <v>11</v>
+      </c>
+      <c r="F7">
+        <v>30</v>
+      </c>
+      <c r="G7">
+        <v>11</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>8</v>
+      </c>
+      <c r="N7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>35</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>40</v>
+      </c>
+      <c r="G8">
+        <v>11</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>9</v>
+      </c>
+      <c r="N8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>40</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>50</v>
+      </c>
+      <c r="G9">
+        <v>11</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="N9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>45</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>60</v>
+      </c>
+      <c r="G10">
+        <v>11</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>3</v>
+      </c>
+      <c r="N10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>50</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>70</v>
+      </c>
+      <c r="G11">
+        <v>11</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>4</v>
+      </c>
+      <c r="N11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="5" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="28.42578125" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" customWidth="1"/>
+    <col min="8" max="9" width="27.28515625" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" customWidth="1"/>
+    <col min="13" max="13" width="16.42578125" customWidth="1"/>
+    <col min="14" max="14" width="22.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>30</v>
+      </c>
+      <c r="F3">
+        <v>13</v>
+      </c>
+      <c r="G3">
+        <v>50</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>4</v>
+      </c>
+      <c r="N3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>15</v>
+      </c>
+      <c r="E4">
+        <v>50</v>
+      </c>
+      <c r="F4">
+        <v>15</v>
+      </c>
+      <c r="G4">
+        <v>60</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>5</v>
+      </c>
+      <c r="N4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>60</v>
+      </c>
+      <c r="F5">
+        <v>16</v>
+      </c>
+      <c r="G5">
+        <v>70</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>6</v>
+      </c>
+      <c r="N5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>25</v>
+      </c>
+      <c r="E6">
+        <v>111</v>
+      </c>
+      <c r="F6">
+        <v>20</v>
+      </c>
+      <c r="G6">
+        <v>100</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>7</v>
+      </c>
+      <c r="N6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>30</v>
+      </c>
+      <c r="E7">
+        <v>11</v>
+      </c>
+      <c r="F7">
+        <v>30</v>
+      </c>
+      <c r="G7">
+        <v>11</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>8</v>
+      </c>
+      <c r="N7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>35</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>40</v>
+      </c>
+      <c r="G8">
+        <v>11</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>9</v>
+      </c>
+      <c r="N8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>40</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>50</v>
+      </c>
+      <c r="G9">
+        <v>11</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="N9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>45</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>60</v>
+      </c>
+      <c r="G10">
+        <v>11</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>3</v>
+      </c>
+      <c r="N10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>50</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>70</v>
+      </c>
+      <c r="G11">
+        <v>11</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>4</v>
+      </c>
+      <c r="N11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3:K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" customWidth="1"/>
-    <col min="4" max="5" width="17.44140625" customWidth="1"/>
-    <col min="6" max="6" width="28.44140625" customWidth="1"/>
-    <col min="7" max="7" width="20.88671875" customWidth="1"/>
-    <col min="8" max="9" width="27.33203125" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" customWidth="1"/>
-    <col min="12" max="12" width="15.109375" customWidth="1"/>
-    <col min="13" max="13" width="16.44140625" customWidth="1"/>
-    <col min="14" max="14" width="22.44140625" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="5" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="28.42578125" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" customWidth="1"/>
+    <col min="8" max="9" width="27.28515625" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" customWidth="1"/>
+    <col min="13" max="13" width="16.42578125" customWidth="1"/>
+    <col min="14" max="14" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2255,7 +3961,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2299,7 +4005,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2337,7 +4043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2375,7 +4081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2413,7 +4119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2451,7 +4157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2489,7 +4195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2527,7 +4233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2565,7 +4271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2603,7 +4309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>

--- a/Assets/8_Data/1_EnemyData.xlsx
+++ b/Assets/8_Data/1_EnemyData.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity_Game\Evolver\Assets\8_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nghia\Documents\Evolver\Assets\8_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A922332B-3729-4208-904B-8345356CC8B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-15" windowWidth="29040" windowHeight="16440" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_Enemy_Bunny" sheetId="5" r:id="rId1"/>
@@ -25,28 +26,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Windows User</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -70,7 +60,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -94,7 +84,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -119,7 +109,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -148,12 +138,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Windows User</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -177,7 +167,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -201,7 +191,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -226,7 +216,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -255,12 +245,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Windows User</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -284,7 +274,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -308,7 +298,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -333,7 +323,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -362,12 +352,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Windows User</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -391,7 +381,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -415,7 +405,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -440,7 +430,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
       <text>
         <r>
           <rPr>
@@ -469,12 +459,12 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Windows User</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -498,7 +488,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -522,7 +512,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
       <text>
         <r>
           <rPr>
@@ -547,7 +537,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
       <text>
         <r>
           <rPr>
@@ -576,12 +566,12 @@
 </file>
 
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Windows User</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -605,7 +595,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
       <text>
         <r>
           <rPr>
@@ -629,7 +619,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
       <text>
         <r>
           <rPr>
@@ -654,7 +644,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000004000000}">
       <text>
         <r>
           <rPr>
@@ -683,12 +673,12 @@
 </file>
 
 <file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Windows User</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
       <text>
         <r>
           <rPr>
@@ -712,7 +702,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000002000000}">
       <text>
         <r>
           <rPr>
@@ -736,7 +726,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000003000000}">
       <text>
         <r>
           <rPr>
@@ -761,7 +751,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000004000000}">
       <text>
         <r>
           <rPr>
@@ -864,7 +854,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1223,30 +1213,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3:M11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" customWidth="1"/>
-    <col min="3" max="4" width="17.42578125" customWidth="1"/>
-    <col min="5" max="5" width="28.42578125" customWidth="1"/>
-    <col min="6" max="6" width="20.85546875" customWidth="1"/>
-    <col min="7" max="8" width="27.28515625" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" customWidth="1"/>
-    <col min="11" max="11" width="22.7109375" customWidth="1"/>
-    <col min="12" max="12" width="16.42578125" customWidth="1"/>
-    <col min="13" max="13" width="22.42578125" customWidth="1"/>
-    <col min="14" max="14" width="25.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" customWidth="1"/>
+    <col min="3" max="4" width="17.44140625" customWidth="1"/>
+    <col min="5" max="5" width="28.44140625" customWidth="1"/>
+    <col min="6" max="6" width="20.88671875" customWidth="1"/>
+    <col min="7" max="8" width="27.33203125" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" customWidth="1"/>
+    <col min="11" max="11" width="22.6640625" customWidth="1"/>
+    <col min="12" max="12" width="16.44140625" customWidth="1"/>
+    <col min="13" max="13" width="22.44140625" customWidth="1"/>
+    <col min="14" max="14" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1290,7 +1280,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1331,7 +1321,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1354,7 +1344,7 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3">
         <v>4</v>
@@ -1372,7 +1362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1395,7 +1385,7 @@
         <v>1</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4">
         <v>5</v>
@@ -1410,7 +1400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1433,7 +1423,7 @@
         <v>1</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5">
         <v>6</v>
@@ -1448,7 +1438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1471,7 +1461,7 @@
         <v>1</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6">
         <v>7</v>
@@ -1486,7 +1476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1509,7 +1499,7 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7">
         <v>8</v>
@@ -1524,7 +1514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1547,7 +1537,7 @@
         <v>1</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8">
         <v>9</v>
@@ -1562,7 +1552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1585,7 +1575,7 @@
         <v>1</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -1600,7 +1590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1623,7 +1613,7 @@
         <v>1</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10">
         <v>3</v>
@@ -1638,7 +1628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1661,7 +1651,7 @@
         <v>1</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11">
         <v>4</v>
@@ -1683,30 +1673,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L20" activeCellId="1" sqref="K3:M11 L20"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" customWidth="1"/>
-    <col min="3" max="4" width="17.42578125" customWidth="1"/>
-    <col min="5" max="5" width="28.42578125" customWidth="1"/>
-    <col min="6" max="6" width="20.85546875" customWidth="1"/>
-    <col min="7" max="8" width="27.28515625" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" customWidth="1"/>
-    <col min="11" max="11" width="22.7109375" customWidth="1"/>
-    <col min="12" max="12" width="16.42578125" customWidth="1"/>
-    <col min="13" max="13" width="22.42578125" customWidth="1"/>
-    <col min="14" max="14" width="25.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" customWidth="1"/>
+    <col min="3" max="4" width="17.44140625" customWidth="1"/>
+    <col min="5" max="5" width="28.44140625" customWidth="1"/>
+    <col min="6" max="6" width="20.88671875" customWidth="1"/>
+    <col min="7" max="8" width="27.33203125" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" customWidth="1"/>
+    <col min="11" max="11" width="22.6640625" customWidth="1"/>
+    <col min="12" max="12" width="16.44140625" customWidth="1"/>
+    <col min="13" max="13" width="22.44140625" customWidth="1"/>
+    <col min="14" max="14" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1750,7 +1740,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1791,7 +1781,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1814,7 +1804,7 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3">
         <v>4</v>
@@ -1832,7 +1822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1855,7 +1845,7 @@
         <v>1</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4">
         <v>5</v>
@@ -1870,7 +1860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1893,7 +1883,7 @@
         <v>1</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5">
         <v>6</v>
@@ -1908,7 +1898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1931,7 +1921,7 @@
         <v>1</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6">
         <v>7</v>
@@ -1946,7 +1936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1969,7 +1959,7 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7">
         <v>8</v>
@@ -1984,7 +1974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2007,7 +1997,7 @@
         <v>1</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8">
         <v>9</v>
@@ -2022,7 +2012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2045,7 +2035,7 @@
         <v>1</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -2060,7 +2050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2083,7 +2073,7 @@
         <v>1</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10">
         <v>3</v>
@@ -2098,7 +2088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2121,7 +2111,7 @@
         <v>1</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11">
         <v>4</v>
@@ -2143,30 +2133,30 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" customWidth="1"/>
-    <col min="3" max="4" width="17.42578125" customWidth="1"/>
-    <col min="5" max="5" width="28.42578125" customWidth="1"/>
-    <col min="6" max="6" width="20.85546875" customWidth="1"/>
-    <col min="7" max="8" width="27.28515625" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" customWidth="1"/>
-    <col min="11" max="11" width="22.7109375" customWidth="1"/>
-    <col min="12" max="12" width="16.42578125" customWidth="1"/>
-    <col min="13" max="13" width="22.42578125" customWidth="1"/>
-    <col min="14" max="14" width="25.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" customWidth="1"/>
+    <col min="3" max="4" width="17.44140625" customWidth="1"/>
+    <col min="5" max="5" width="28.44140625" customWidth="1"/>
+    <col min="6" max="6" width="20.88671875" customWidth="1"/>
+    <col min="7" max="8" width="27.33203125" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" customWidth="1"/>
+    <col min="11" max="11" width="22.6640625" customWidth="1"/>
+    <col min="12" max="12" width="16.44140625" customWidth="1"/>
+    <col min="13" max="13" width="22.44140625" customWidth="1"/>
+    <col min="14" max="14" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2210,7 +2200,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2251,7 +2241,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2274,7 +2264,7 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="I3">
         <v>4</v>
@@ -2292,7 +2282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2315,7 +2305,7 @@
         <v>1</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="I4">
         <v>5</v>
@@ -2330,7 +2320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2353,7 +2343,7 @@
         <v>1</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="I5">
         <v>6</v>
@@ -2368,7 +2358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2391,7 +2381,7 @@
         <v>1</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="I6">
         <v>7</v>
@@ -2406,7 +2396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2429,7 +2419,7 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="I7">
         <v>8</v>
@@ -2444,7 +2434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2467,7 +2457,7 @@
         <v>1</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="I8">
         <v>9</v>
@@ -2482,7 +2472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2505,7 +2495,7 @@
         <v>1</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -2520,7 +2510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2543,7 +2533,7 @@
         <v>1</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="I10">
         <v>3</v>
@@ -2558,7 +2548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2581,7 +2571,7 @@
         <v>1</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="I11">
         <v>4</v>
@@ -2603,31 +2593,31 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="F17" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="5" width="17.42578125" customWidth="1"/>
-    <col min="6" max="6" width="28.42578125" customWidth="1"/>
-    <col min="7" max="7" width="20.85546875" customWidth="1"/>
-    <col min="8" max="9" width="27.28515625" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" customWidth="1"/>
-    <col min="12" max="12" width="22.7109375" customWidth="1"/>
-    <col min="13" max="13" width="16.42578125" customWidth="1"/>
-    <col min="14" max="14" width="22.42578125" customWidth="1"/>
-    <col min="15" max="15" width="25.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" customWidth="1"/>
+    <col min="4" max="5" width="17.44140625" customWidth="1"/>
+    <col min="6" max="6" width="28.44140625" customWidth="1"/>
+    <col min="7" max="7" width="20.88671875" customWidth="1"/>
+    <col min="8" max="9" width="27.33203125" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" customWidth="1"/>
+    <col min="12" max="12" width="22.6640625" customWidth="1"/>
+    <col min="13" max="13" width="16.44140625" customWidth="1"/>
+    <col min="14" max="14" width="22.44140625" customWidth="1"/>
+    <col min="15" max="15" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2674,7 +2664,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2718,7 +2708,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2762,7 +2752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2800,7 +2790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2838,7 +2828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2876,7 +2866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2914,7 +2904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2952,7 +2942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2990,7 +2980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -3028,7 +3018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -3073,30 +3063,30 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="5" width="17.42578125" customWidth="1"/>
-    <col min="6" max="6" width="28.42578125" customWidth="1"/>
-    <col min="7" max="7" width="20.85546875" customWidth="1"/>
-    <col min="8" max="9" width="27.28515625" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" customWidth="1"/>
-    <col min="13" max="13" width="16.42578125" customWidth="1"/>
-    <col min="14" max="14" width="22.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" customWidth="1"/>
+    <col min="4" max="5" width="17.44140625" customWidth="1"/>
+    <col min="6" max="6" width="28.44140625" customWidth="1"/>
+    <col min="7" max="7" width="20.88671875" customWidth="1"/>
+    <col min="8" max="9" width="27.33203125" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" customWidth="1"/>
+    <col min="12" max="12" width="15.109375" customWidth="1"/>
+    <col min="13" max="13" width="16.44140625" customWidth="1"/>
+    <col min="14" max="14" width="22.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -3143,7 +3133,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -3187,7 +3177,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3219,7 +3209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3251,7 +3241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -3283,7 +3273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -3315,7 +3305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -3347,7 +3337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -3379,7 +3369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -3411,7 +3401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -3443,7 +3433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -3482,30 +3472,30 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="5" width="17.42578125" customWidth="1"/>
-    <col min="6" max="6" width="28.42578125" customWidth="1"/>
-    <col min="7" max="7" width="20.85546875" customWidth="1"/>
-    <col min="8" max="9" width="27.28515625" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" customWidth="1"/>
-    <col min="13" max="13" width="16.42578125" customWidth="1"/>
-    <col min="14" max="14" width="22.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" customWidth="1"/>
+    <col min="4" max="5" width="17.44140625" customWidth="1"/>
+    <col min="6" max="6" width="28.44140625" customWidth="1"/>
+    <col min="7" max="7" width="20.88671875" customWidth="1"/>
+    <col min="8" max="9" width="27.33203125" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" customWidth="1"/>
+    <col min="12" max="12" width="15.109375" customWidth="1"/>
+    <col min="13" max="13" width="16.44140625" customWidth="1"/>
+    <col min="14" max="14" width="22.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -3552,7 +3542,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -3596,7 +3586,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3628,7 +3618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3660,7 +3650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -3692,7 +3682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -3724,7 +3714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -3756,7 +3746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -3788,7 +3778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -3820,7 +3810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -3852,7 +3842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -3891,30 +3881,30 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3:K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="5" width="17.42578125" customWidth="1"/>
-    <col min="6" max="6" width="28.42578125" customWidth="1"/>
-    <col min="7" max="7" width="20.85546875" customWidth="1"/>
-    <col min="8" max="9" width="27.28515625" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" customWidth="1"/>
-    <col min="13" max="13" width="16.42578125" customWidth="1"/>
-    <col min="14" max="14" width="22.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" customWidth="1"/>
+    <col min="4" max="5" width="17.44140625" customWidth="1"/>
+    <col min="6" max="6" width="28.44140625" customWidth="1"/>
+    <col min="7" max="7" width="20.88671875" customWidth="1"/>
+    <col min="8" max="9" width="27.33203125" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" customWidth="1"/>
+    <col min="12" max="12" width="15.109375" customWidth="1"/>
+    <col min="13" max="13" width="16.44140625" customWidth="1"/>
+    <col min="14" max="14" width="22.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -3961,7 +3951,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -4005,7 +3995,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4043,7 +4033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -4081,7 +4071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -4119,7 +4109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -4157,7 +4147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -4195,7 +4185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -4233,7 +4223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -4271,7 +4261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -4309,7 +4299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>

--- a/Assets/8_Data/1_EnemyData.xlsx
+++ b/Assets/8_Data/1_EnemyData.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nghia\Documents\Evolver\Assets\8_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity_Game\Evolver\Assets\8_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A922332B-3729-4208-904B-8345356CC8B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Data_Enemy_Bunny" sheetId="5" r:id="rId1"/>
@@ -31,12 +30,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Windows User</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -60,7 +59,32 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="G1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+melee = 2
+range &gt;5</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -84,7 +108,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="J1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -109,7 +133,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="P1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -138,12 +162,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Windows User</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -167,7 +191,32 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="G1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+melee = 2
+range &gt;5</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -191,7 +240,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="J1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -216,7 +265,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
+    <comment ref="P1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -245,12 +294,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Windows User</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -274,7 +323,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -294,11 +343,64 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-(per second)</t>
+melee = 2
+range &gt;5</t>
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
+    <comment ref="H1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+tất cả anim đánh của quái đều là 0.25s,
+nhâp 1 tương đương 0.25s * 1
+muốn nhanh thì tăng số, muốn chậm thì giảm số</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+bao nhiêu giây thì chạy anim đánh 1 lần,
+attack speed = chỉ số này + animSpeed
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -323,7 +425,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
+    <comment ref="P1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -352,12 +454,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Windows User</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -381,7 +483,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -405,7 +507,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -430,7 +532,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
+    <comment ref="O1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -459,12 +561,12 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Windows User</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -488,7 +590,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -512,7 +614,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -537,7 +639,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
+    <comment ref="O1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -566,12 +668,12 @@
 </file>
 
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Windows User</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -595,7 +697,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -619,7 +721,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -644,7 +746,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000004000000}">
+    <comment ref="O1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -673,12 +775,12 @@
 </file>
 
 <file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Windows User</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -702,7 +804,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000002000000}">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -726,7 +828,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000003000000}">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -751,7 +853,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000004000000}">
+    <comment ref="O1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -780,7 +882,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="25">
   <si>
     <t>Name</t>
   </si>
@@ -850,11 +952,17 @@
   <si>
     <t>Exp</t>
   </si>
+  <si>
+    <t>AttackRange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          AnimSpeedMulti</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1213,30 +1321,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" customWidth="1"/>
-    <col min="3" max="4" width="17.44140625" customWidth="1"/>
-    <col min="5" max="5" width="28.44140625" customWidth="1"/>
-    <col min="6" max="6" width="20.88671875" customWidth="1"/>
-    <col min="7" max="8" width="27.33203125" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" customWidth="1"/>
-    <col min="11" max="11" width="22.6640625" customWidth="1"/>
-    <col min="12" max="12" width="16.44140625" customWidth="1"/>
-    <col min="13" max="13" width="22.44140625" customWidth="1"/>
-    <col min="14" max="14" width="25.33203125" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="4" width="17.42578125" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" customWidth="1"/>
+    <col min="6" max="8" width="20.85546875" customWidth="1"/>
+    <col min="9" max="10" width="27.28515625" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" customWidth="1"/>
+    <col min="13" max="13" width="22.7109375" customWidth="1"/>
+    <col min="14" max="14" width="16.42578125" customWidth="1"/>
+    <col min="15" max="15" width="22.42578125" customWidth="1"/>
+    <col min="16" max="16" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1256,31 +1364,37 @@
         <v>2</v>
       </c>
       <c r="G1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>19</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>5</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>6</v>
       </c>
-      <c r="M1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1299,29 +1413,29 @@
       <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
       <c r="I2" t="s">
         <v>13</v>
       </c>
+      <c r="J2" t="s">
+        <v>13</v>
+      </c>
       <c r="K2" t="s">
         <v>13</v>
       </c>
-      <c r="L2" t="s">
-        <v>13</v>
-      </c>
       <c r="M2" t="s">
         <v>13</v>
       </c>
       <c r="N2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1341,28 +1455,34 @@
         <v>50</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3">
         <v>4</v>
       </c>
-      <c r="J3">
-        <v>7</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="L3">
+        <v>7</v>
+      </c>
+      <c r="M3" t="s">
         <v>21</v>
       </c>
-      <c r="L3">
-        <v>7</v>
-      </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N3">
+        <v>7</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1382,25 +1502,31 @@
         <v>60</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4">
         <v>5</v>
       </c>
-      <c r="J4">
-        <v>7</v>
-      </c>
       <c r="L4">
         <v>7</v>
       </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N4">
+        <v>7</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1420,25 +1546,31 @@
         <v>70</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5">
         <v>6</v>
       </c>
-      <c r="J5">
-        <v>7</v>
-      </c>
       <c r="L5">
         <v>7</v>
       </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N5">
+        <v>7</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1458,25 +1590,31 @@
         <v>100</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6">
         <v>7</v>
       </c>
       <c r="L6">
         <v>7</v>
       </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N6">
+        <v>7</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1496,25 +1634,31 @@
         <v>11</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7">
         <v>8</v>
       </c>
-      <c r="J7">
-        <v>7</v>
-      </c>
       <c r="L7">
         <v>7</v>
       </c>
-      <c r="M7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N7">
+        <v>7</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1534,25 +1678,31 @@
         <v>11</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+      <c r="K8">
         <v>9</v>
       </c>
-      <c r="J8">
-        <v>7</v>
-      </c>
       <c r="L8">
         <v>7</v>
       </c>
-      <c r="M8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N8">
+        <v>7</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1572,25 +1722,31 @@
         <v>11</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
       </c>
       <c r="L9">
         <v>7</v>
       </c>
-      <c r="M9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N9">
+        <v>7</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1610,25 +1766,31 @@
         <v>11</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J10">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
       </c>
       <c r="L10">
         <v>7</v>
       </c>
-      <c r="M10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N10">
+        <v>7</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1648,21 +1810,27 @@
         <v>11</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
+      <c r="K11">
         <v>4</v>
       </c>
-      <c r="J11">
-        <v>7</v>
-      </c>
       <c r="L11">
         <v>7</v>
       </c>
-      <c r="M11">
+      <c r="N11">
+        <v>7</v>
+      </c>
+      <c r="O11">
         <v>1</v>
       </c>
     </row>
@@ -1673,30 +1841,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" customWidth="1"/>
-    <col min="3" max="4" width="17.44140625" customWidth="1"/>
-    <col min="5" max="5" width="28.44140625" customWidth="1"/>
-    <col min="6" max="6" width="20.88671875" customWidth="1"/>
-    <col min="7" max="8" width="27.33203125" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" customWidth="1"/>
-    <col min="11" max="11" width="22.6640625" customWidth="1"/>
-    <col min="12" max="12" width="16.44140625" customWidth="1"/>
-    <col min="13" max="13" width="22.44140625" customWidth="1"/>
-    <col min="14" max="14" width="25.33203125" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="4" width="17.42578125" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" customWidth="1"/>
+    <col min="6" max="8" width="20.85546875" customWidth="1"/>
+    <col min="9" max="10" width="27.28515625" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" customWidth="1"/>
+    <col min="13" max="13" width="22.7109375" customWidth="1"/>
+    <col min="14" max="14" width="16.42578125" customWidth="1"/>
+    <col min="15" max="15" width="22.42578125" customWidth="1"/>
+    <col min="16" max="16" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1716,31 +1884,37 @@
         <v>2</v>
       </c>
       <c r="G1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>19</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>5</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>6</v>
       </c>
-      <c r="M1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1759,29 +1933,29 @@
       <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
       <c r="I2" t="s">
         <v>13</v>
       </c>
+      <c r="J2" t="s">
+        <v>13</v>
+      </c>
       <c r="K2" t="s">
         <v>13</v>
       </c>
-      <c r="L2" t="s">
-        <v>13</v>
-      </c>
       <c r="M2" t="s">
         <v>13</v>
       </c>
       <c r="N2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1801,28 +1975,34 @@
         <v>50</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3">
         <v>4</v>
       </c>
-      <c r="J3">
-        <v>7</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="L3">
+        <v>7</v>
+      </c>
+      <c r="M3" t="s">
         <v>21</v>
       </c>
-      <c r="L3">
-        <v>7</v>
-      </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N3">
+        <v>7</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1842,25 +2022,31 @@
         <v>60</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4">
         <v>5</v>
       </c>
-      <c r="J4">
-        <v>7</v>
-      </c>
       <c r="L4">
         <v>7</v>
       </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N4">
+        <v>7</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1880,25 +2066,31 @@
         <v>70</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5">
         <v>6</v>
       </c>
-      <c r="J5">
-        <v>7</v>
-      </c>
       <c r="L5">
         <v>7</v>
       </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N5">
+        <v>7</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1918,25 +2110,31 @@
         <v>100</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6">
         <v>7</v>
       </c>
       <c r="L6">
         <v>7</v>
       </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N6">
+        <v>7</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1956,25 +2154,31 @@
         <v>11</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7">
         <v>8</v>
       </c>
-      <c r="J7">
-        <v>7</v>
-      </c>
       <c r="L7">
         <v>7</v>
       </c>
-      <c r="M7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N7">
+        <v>7</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1994,25 +2198,31 @@
         <v>11</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+      <c r="K8">
         <v>9</v>
       </c>
-      <c r="J8">
-        <v>7</v>
-      </c>
       <c r="L8">
         <v>7</v>
       </c>
-      <c r="M8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N8">
+        <v>7</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2032,25 +2242,31 @@
         <v>11</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
       </c>
       <c r="L9">
         <v>7</v>
       </c>
-      <c r="M9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N9">
+        <v>7</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2070,25 +2286,31 @@
         <v>11</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J10">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
       </c>
       <c r="L10">
         <v>7</v>
       </c>
-      <c r="M10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N10">
+        <v>7</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2108,21 +2330,27 @@
         <v>11</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
+      <c r="K11">
         <v>4</v>
       </c>
-      <c r="J11">
-        <v>7</v>
-      </c>
       <c r="L11">
         <v>7</v>
       </c>
-      <c r="M11">
+      <c r="N11">
+        <v>7</v>
+      </c>
+      <c r="O11">
         <v>1</v>
       </c>
     </row>
@@ -2133,30 +2361,30 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:N11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:H11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" customWidth="1"/>
-    <col min="3" max="4" width="17.44140625" customWidth="1"/>
-    <col min="5" max="5" width="28.44140625" customWidth="1"/>
-    <col min="6" max="6" width="20.88671875" customWidth="1"/>
-    <col min="7" max="8" width="27.33203125" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" customWidth="1"/>
-    <col min="11" max="11" width="22.6640625" customWidth="1"/>
-    <col min="12" max="12" width="16.44140625" customWidth="1"/>
-    <col min="13" max="13" width="22.44140625" customWidth="1"/>
-    <col min="14" max="14" width="25.33203125" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="4" width="17.42578125" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" customWidth="1"/>
+    <col min="6" max="8" width="20.85546875" customWidth="1"/>
+    <col min="9" max="10" width="27.28515625" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" customWidth="1"/>
+    <col min="13" max="13" width="22.7109375" customWidth="1"/>
+    <col min="14" max="14" width="16.42578125" customWidth="1"/>
+    <col min="15" max="15" width="22.42578125" customWidth="1"/>
+    <col min="16" max="16" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2176,31 +2404,37 @@
         <v>2</v>
       </c>
       <c r="G1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>19</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>5</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>6</v>
       </c>
-      <c r="M1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2219,29 +2453,29 @@
       <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
       <c r="I2" t="s">
         <v>13</v>
       </c>
+      <c r="J2" t="s">
+        <v>13</v>
+      </c>
       <c r="K2" t="s">
         <v>13</v>
       </c>
-      <c r="L2" t="s">
-        <v>13</v>
-      </c>
       <c r="M2" t="s">
         <v>13</v>
       </c>
       <c r="N2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2261,28 +2495,34 @@
         <v>50</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="J3">
         <v>2.2999999999999998</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <v>4</v>
       </c>
-      <c r="J3">
-        <v>7</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="L3">
+        <v>7</v>
+      </c>
+      <c r="M3" t="s">
         <v>21</v>
       </c>
-      <c r="L3">
-        <v>7</v>
-      </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N3">
+        <v>7</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2302,25 +2542,31 @@
         <v>60</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4">
         <v>2.2999999999999998</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>5</v>
       </c>
-      <c r="J4">
-        <v>7</v>
-      </c>
       <c r="L4">
         <v>7</v>
       </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N4">
+        <v>7</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2340,25 +2586,31 @@
         <v>70</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5">
         <v>2.2999999999999998</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <v>6</v>
       </c>
-      <c r="J5">
-        <v>7</v>
-      </c>
       <c r="L5">
         <v>7</v>
       </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N5">
+        <v>7</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2378,25 +2630,31 @@
         <v>100</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6">
         <v>2.2999999999999998</v>
       </c>
-      <c r="I6">
-        <v>7</v>
-      </c>
-      <c r="J6">
+      <c r="K6">
         <v>7</v>
       </c>
       <c r="L6">
         <v>7</v>
       </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N6">
+        <v>7</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2416,25 +2674,31 @@
         <v>11</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="J7">
         <v>2.2999999999999998</v>
       </c>
-      <c r="I7">
+      <c r="K7">
         <v>8</v>
       </c>
-      <c r="J7">
-        <v>7</v>
-      </c>
       <c r="L7">
         <v>7</v>
       </c>
-      <c r="M7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N7">
+        <v>7</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2454,25 +2718,31 @@
         <v>11</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8">
         <v>2.2999999999999998</v>
       </c>
-      <c r="I8">
+      <c r="K8">
         <v>9</v>
       </c>
-      <c r="J8">
-        <v>7</v>
-      </c>
       <c r="L8">
         <v>7</v>
       </c>
-      <c r="M8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N8">
+        <v>7</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2492,25 +2762,31 @@
         <v>11</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="J9">
         <v>2.2999999999999998</v>
       </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>7</v>
+      <c r="K9">
+        <v>1</v>
       </c>
       <c r="L9">
         <v>7</v>
       </c>
-      <c r="M9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N9">
+        <v>7</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2530,25 +2806,31 @@
         <v>11</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+      <c r="J10">
         <v>2.2999999999999998</v>
       </c>
-      <c r="I10">
-        <v>3</v>
-      </c>
-      <c r="J10">
-        <v>7</v>
+      <c r="K10">
+        <v>3</v>
       </c>
       <c r="L10">
         <v>7</v>
       </c>
-      <c r="M10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N10">
+        <v>7</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2568,56 +2850,63 @@
         <v>11</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
+      </c>
+      <c r="J11">
         <v>2.2999999999999998</v>
       </c>
-      <c r="I11">
+      <c r="K11">
         <v>4</v>
       </c>
-      <c r="J11">
-        <v>7</v>
-      </c>
       <c r="L11">
         <v>7</v>
       </c>
-      <c r="M11">
+      <c r="N11">
+        <v>7</v>
+      </c>
+      <c r="O11">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="F17" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" customWidth="1"/>
-    <col min="4" max="5" width="17.44140625" customWidth="1"/>
-    <col min="6" max="6" width="28.44140625" customWidth="1"/>
-    <col min="7" max="7" width="20.88671875" customWidth="1"/>
-    <col min="8" max="9" width="27.33203125" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" customWidth="1"/>
-    <col min="12" max="12" width="22.6640625" customWidth="1"/>
-    <col min="13" max="13" width="16.44140625" customWidth="1"/>
-    <col min="14" max="14" width="22.44140625" customWidth="1"/>
-    <col min="15" max="15" width="25.33203125" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="5" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="28.42578125" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" customWidth="1"/>
+    <col min="8" max="9" width="27.28515625" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" customWidth="1"/>
+    <col min="12" max="12" width="22.7109375" customWidth="1"/>
+    <col min="13" max="13" width="16.42578125" customWidth="1"/>
+    <col min="14" max="14" width="22.42578125" customWidth="1"/>
+    <col min="15" max="15" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2664,7 +2953,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2708,7 +2997,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2752,7 +3041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2790,7 +3079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2828,7 +3117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2866,7 +3155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2904,7 +3193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2942,7 +3231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2980,7 +3269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -3018,7 +3307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -3063,30 +3352,30 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" customWidth="1"/>
-    <col min="4" max="5" width="17.44140625" customWidth="1"/>
-    <col min="6" max="6" width="28.44140625" customWidth="1"/>
-    <col min="7" max="7" width="20.88671875" customWidth="1"/>
-    <col min="8" max="9" width="27.33203125" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" customWidth="1"/>
-    <col min="12" max="12" width="15.109375" customWidth="1"/>
-    <col min="13" max="13" width="16.44140625" customWidth="1"/>
-    <col min="14" max="14" width="22.44140625" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="5" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="28.42578125" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" customWidth="1"/>
+    <col min="8" max="9" width="27.28515625" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" customWidth="1"/>
+    <col min="13" max="13" width="16.42578125" customWidth="1"/>
+    <col min="14" max="14" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -3133,7 +3422,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -3177,7 +3466,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3209,7 +3498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3241,7 +3530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -3273,7 +3562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -3305,7 +3594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -3337,7 +3626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -3369,7 +3658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -3401,7 +3690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -3433,7 +3722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -3472,30 +3761,30 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" customWidth="1"/>
-    <col min="4" max="5" width="17.44140625" customWidth="1"/>
-    <col min="6" max="6" width="28.44140625" customWidth="1"/>
-    <col min="7" max="7" width="20.88671875" customWidth="1"/>
-    <col min="8" max="9" width="27.33203125" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" customWidth="1"/>
-    <col min="12" max="12" width="15.109375" customWidth="1"/>
-    <col min="13" max="13" width="16.44140625" customWidth="1"/>
-    <col min="14" max="14" width="22.44140625" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="5" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="28.42578125" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" customWidth="1"/>
+    <col min="8" max="9" width="27.28515625" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" customWidth="1"/>
+    <col min="13" max="13" width="16.42578125" customWidth="1"/>
+    <col min="14" max="14" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -3542,7 +3831,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -3586,7 +3875,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3618,7 +3907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3650,7 +3939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -3682,7 +3971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -3714,7 +4003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -3746,7 +4035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -3778,7 +4067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -3810,7 +4099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -3842,7 +4131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -3881,30 +4170,30 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3:K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" customWidth="1"/>
-    <col min="4" max="5" width="17.44140625" customWidth="1"/>
-    <col min="6" max="6" width="28.44140625" customWidth="1"/>
-    <col min="7" max="7" width="20.88671875" customWidth="1"/>
-    <col min="8" max="9" width="27.33203125" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" customWidth="1"/>
-    <col min="12" max="12" width="15.109375" customWidth="1"/>
-    <col min="13" max="13" width="16.44140625" customWidth="1"/>
-    <col min="14" max="14" width="22.44140625" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="5" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="28.42578125" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" customWidth="1"/>
+    <col min="8" max="9" width="27.28515625" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" customWidth="1"/>
+    <col min="13" max="13" width="16.42578125" customWidth="1"/>
+    <col min="14" max="14" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -3951,7 +4240,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -3995,7 +4284,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4033,7 +4322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -4071,7 +4360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -4109,7 +4398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -4147,7 +4436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -4185,7 +4474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -4223,7 +4512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -4261,7 +4550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -4299,7 +4588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>

--- a/Assets/8_Data/1_EnemyData.xlsx
+++ b/Assets/8_Data/1_EnemyData.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ba Sumo\Documents\Projects\Evolver\Assets\8_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\evolverFromGit\Assets\8_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="27870" windowHeight="12915"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="27870" windowHeight="12915" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data_Enemy_Bunny" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="13" r:id="rId2"/>
+    <sheet name="Data_Enemy_Mushroom" sheetId="10" r:id="rId2"/>
     <sheet name="Data_Enemy_Rabbit" sheetId="2" r:id="rId3"/>
     <sheet name="Data_Enemy_WolfPup" sheetId="3" r:id="rId4"/>
     <sheet name="Data_Enemy_WolfCute" sheetId="4" r:id="rId5"/>
@@ -22,9 +22,8 @@
     <sheet name="Data_Enemy_Seed" sheetId="7" r:id="rId8"/>
     <sheet name="Data_Enemy_Sprout" sheetId="8" r:id="rId9"/>
     <sheet name="Data_Enemy_Fungi" sheetId="9" r:id="rId10"/>
-    <sheet name="Data_Enemy_Mushroom" sheetId="10" r:id="rId11"/>
-    <sheet name="Data_Enemy_Cacti" sheetId="11" r:id="rId12"/>
-    <sheet name="Data_Enemy_CactusCute" sheetId="12" r:id="rId13"/>
+    <sheet name="Data_Enemy_Cacti" sheetId="11" r:id="rId11"/>
+    <sheet name="Data_Enemy_CactusCute" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -282,6 +281,49 @@
     <author/>
   </authors>
   <commentList>
+    <comment ref="H1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Windows User:
+melee = 2
+range &gt;5
+======</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Windows User:
+tất cả anim đánh của quái đều là 0.25s,
+nhâp 1 tương đương 0.25s * 1
+muốn nhanh thì tăng số, muốn chậm thì giảm số
+======</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
     <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
@@ -388,7 +430,7 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
@@ -411,49 +453,6 @@
       </text>
     </comment>
     <comment ref="J1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Windows User:
-tất cả anim đánh của quái đều là 0.25s,
-nhâp 1 tương đương 0.25s * 1
-muốn nhanh thì tăng số, muốn chậm thì giảm số
-======</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment ref="H1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Windows User:
-melee = 2
-range &gt;5
-======</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1106,7 +1105,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
@@ -4442,11 +4441,11 @@
   <cols>
     <col min="1" max="1" width="16.7109375" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" customWidth="1"/>
-    <col min="7" max="7" width="28.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" customWidth="1"/>
     <col min="8" max="8" width="11.7109375" customWidth="1"/>
     <col min="9" max="9" width="15.42578125" customWidth="1"/>
     <col min="10" max="10" width="11.7109375" customWidth="1"/>
@@ -4455,8 +4454,9 @@
     <col min="13" max="13" width="12.7109375" customWidth="1"/>
     <col min="14" max="14" width="15.140625" customWidth="1"/>
     <col min="15" max="15" width="16.42578125" customWidth="1"/>
-    <col min="16" max="16" width="22.42578125" customWidth="1"/>
-    <col min="17" max="28" width="8.7109375" customWidth="1"/>
+    <col min="16" max="16" width="16.85546875" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" customWidth="1"/>
+    <col min="18" max="28" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -4467,13 +4467,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -4517,13 +4517,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>18</v>
@@ -4563,16 +4563,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="9">
-        <v>2002</v>
+        <v>28</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
       </c>
       <c r="D3" s="9">
-        <v>158</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
+        <v>230</v>
+      </c>
+      <c r="E3" s="9">
+        <v>34</v>
       </c>
       <c r="F3" s="6">
         <v>0</v>
@@ -4592,13 +4592,12 @@
       <c r="K3" s="6">
         <v>3</v>
       </c>
-      <c r="L3" s="8">
-        <f>INT(Data_Enemy_Bunny!L12*2.25)</f>
-        <v>2580</v>
+      <c r="L3" s="6">
+        <v>1</v>
       </c>
       <c r="M3" s="6">
         <f t="shared" ref="M3:M12" si="0">L3*3</f>
-        <v>7740</v>
+        <v>3</v>
       </c>
       <c r="N3" s="1">
         <v>1</v>
@@ -4618,16 +4617,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="9">
-        <v>2502</v>
+        <v>28</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
       </c>
       <c r="D4" s="9">
-        <v>197</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
+        <v>287</v>
+      </c>
+      <c r="E4" s="9">
+        <v>42</v>
       </c>
       <c r="F4" s="6">
         <v>0</v>
@@ -4650,11 +4649,11 @@
       </c>
       <c r="L4" s="1">
         <f t="shared" ref="L4:L12" si="2">INT(L3*2.25)</f>
-        <v>5805</v>
+        <v>2</v>
       </c>
       <c r="M4" s="6">
         <f t="shared" si="0"/>
-        <v>17415</v>
+        <v>6</v>
       </c>
       <c r="N4" s="1">
         <v>1</v>
@@ -4674,16 +4673,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="9">
-        <v>3127</v>
+        <v>28</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
       </c>
       <c r="D5" s="9">
-        <v>246</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
+        <v>358</v>
+      </c>
+      <c r="E5" s="9">
+        <v>52</v>
       </c>
       <c r="F5" s="6">
         <v>0</v>
@@ -4706,11 +4705,11 @@
       </c>
       <c r="L5" s="1">
         <f t="shared" si="2"/>
-        <v>13061</v>
+        <v>4</v>
       </c>
       <c r="M5" s="6">
         <f t="shared" si="0"/>
-        <v>39183</v>
+        <v>12</v>
       </c>
       <c r="N5" s="1">
         <v>1</v>
@@ -4730,16 +4729,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="9">
-        <v>3908</v>
+        <v>28</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
       </c>
       <c r="D6" s="9">
-        <v>307</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
+        <v>447</v>
+      </c>
+      <c r="E6" s="9">
+        <v>65</v>
       </c>
       <c r="F6" s="6">
         <v>0</v>
@@ -4762,11 +4761,11 @@
       </c>
       <c r="L6" s="1">
         <f t="shared" si="2"/>
-        <v>29387</v>
+        <v>9</v>
       </c>
       <c r="M6" s="6">
         <f t="shared" si="0"/>
-        <v>88161</v>
+        <v>27</v>
       </c>
       <c r="N6" s="1">
         <v>1</v>
@@ -4786,16 +4785,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="9">
-        <v>4885</v>
+        <v>28</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
       </c>
       <c r="D7" s="9">
-        <v>383</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1</v>
+        <v>558</v>
+      </c>
+      <c r="E7" s="9">
+        <v>81</v>
       </c>
       <c r="F7" s="6">
         <v>0</v>
@@ -4818,11 +4817,11 @@
       </c>
       <c r="L7" s="1">
         <f t="shared" si="2"/>
-        <v>66120</v>
+        <v>20</v>
       </c>
       <c r="M7" s="6">
         <f t="shared" si="0"/>
-        <v>198360</v>
+        <v>60</v>
       </c>
       <c r="N7" s="1">
         <v>1</v>
@@ -4842,16 +4841,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="9">
-        <v>6106</v>
+        <v>28</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
       </c>
       <c r="D8" s="9">
-        <v>478</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
+        <v>697</v>
+      </c>
+      <c r="E8" s="9">
+        <v>101</v>
       </c>
       <c r="F8" s="6">
         <v>0</v>
@@ -4874,11 +4873,11 @@
       </c>
       <c r="L8" s="1">
         <f t="shared" si="2"/>
-        <v>148770</v>
+        <v>45</v>
       </c>
       <c r="M8" s="6">
         <f t="shared" si="0"/>
-        <v>446310</v>
+        <v>135</v>
       </c>
       <c r="N8" s="1">
         <v>1</v>
@@ -4898,16 +4897,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="9">
-        <v>7632</v>
+        <v>28</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
       </c>
       <c r="D9" s="9">
-        <v>597</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1</v>
+        <v>871</v>
+      </c>
+      <c r="E9" s="9">
+        <v>126</v>
       </c>
       <c r="F9" s="6">
         <v>0</v>
@@ -4930,11 +4929,11 @@
       </c>
       <c r="L9" s="1">
         <f t="shared" si="2"/>
-        <v>334732</v>
+        <v>101</v>
       </c>
       <c r="M9" s="6">
         <f t="shared" si="0"/>
-        <v>1004196</v>
+        <v>303</v>
       </c>
       <c r="N9" s="1">
         <v>1</v>
@@ -4954,16 +4953,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="9">
-        <v>9540</v>
+        <v>28</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
       </c>
       <c r="D10" s="9">
-        <v>746</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1</v>
+        <v>1088</v>
+      </c>
+      <c r="E10" s="9">
+        <v>157</v>
       </c>
       <c r="F10" s="6">
         <v>0</v>
@@ -4986,11 +4985,11 @@
       </c>
       <c r="L10" s="1">
         <f t="shared" si="2"/>
-        <v>753147</v>
+        <v>227</v>
       </c>
       <c r="M10" s="6">
         <f t="shared" si="0"/>
-        <v>2259441</v>
+        <v>681</v>
       </c>
       <c r="N10" s="1">
         <v>1</v>
@@ -5010,16 +5009,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="9">
-        <v>11925</v>
+        <v>28</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
       </c>
       <c r="D11" s="9">
-        <v>932</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1</v>
+        <v>1360</v>
+      </c>
+      <c r="E11" s="9">
+        <v>196</v>
       </c>
       <c r="F11" s="6">
         <v>0</v>
@@ -5042,11 +5041,11 @@
       </c>
       <c r="L11" s="1">
         <f t="shared" si="2"/>
-        <v>1694580</v>
+        <v>510</v>
       </c>
       <c r="M11" s="6">
         <f t="shared" si="0"/>
-        <v>5083740</v>
+        <v>1530</v>
       </c>
       <c r="N11" s="1">
         <v>1</v>
@@ -5066,16 +5065,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="9">
-        <v>14906</v>
+        <v>28</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
       </c>
       <c r="D12" s="9">
-        <v>1165</v>
-      </c>
-      <c r="E12" s="1">
-        <v>1</v>
+        <v>1700</v>
+      </c>
+      <c r="E12" s="9">
+        <v>245</v>
       </c>
       <c r="F12" s="6">
         <v>0</v>
@@ -5098,11 +5097,11 @@
       </c>
       <c r="L12" s="1">
         <f t="shared" si="2"/>
-        <v>3812805</v>
+        <v>1147</v>
       </c>
       <c r="M12" s="6">
         <f t="shared" si="0"/>
-        <v>11438415</v>
+        <v>3441</v>
       </c>
       <c r="N12" s="1">
         <v>1</v>
@@ -6114,1678 +6113,6 @@
   <cols>
     <col min="1" max="1" width="16.7109375" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="5.42578125" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" customWidth="1"/>
-    <col min="11" max="11" width="27.28515625" customWidth="1"/>
-    <col min="12" max="12" width="15.28515625" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" customWidth="1"/>
-    <col min="15" max="15" width="16.42578125" customWidth="1"/>
-    <col min="16" max="16" width="16.85546875" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" customWidth="1"/>
-    <col min="18" max="28" width="8.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="9">
-        <v>230</v>
-      </c>
-      <c r="E3" s="9">
-        <v>34</v>
-      </c>
-      <c r="F3" s="6">
-        <v>0</v>
-      </c>
-      <c r="G3" s="6">
-        <v>0</v>
-      </c>
-      <c r="H3" s="7">
-        <v>2</v>
-      </c>
-      <c r="I3" s="7">
-        <v>1</v>
-      </c>
-      <c r="J3" s="5">
-        <v>2</v>
-      </c>
-      <c r="K3" s="6">
-        <v>3</v>
-      </c>
-      <c r="L3" s="6">
-        <v>1</v>
-      </c>
-      <c r="M3" s="6">
-        <f t="shared" ref="M3:M12" si="0">L3*3</f>
-        <v>3</v>
-      </c>
-      <c r="N3" s="1">
-        <v>1</v>
-      </c>
-      <c r="O3" s="1">
-        <v>1</v>
-      </c>
-      <c r="P3" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="9">
-        <v>287</v>
-      </c>
-      <c r="E4" s="9">
-        <v>42</v>
-      </c>
-      <c r="F4" s="6">
-        <v>0</v>
-      </c>
-      <c r="G4" s="6">
-        <v>0</v>
-      </c>
-      <c r="H4" s="7">
-        <v>2</v>
-      </c>
-      <c r="I4" s="7">
-        <v>1</v>
-      </c>
-      <c r="J4" s="5">
-        <f t="shared" ref="J4:J12" si="1">J3-0.05</f>
-        <v>1.95</v>
-      </c>
-      <c r="K4" s="6">
-        <v>3</v>
-      </c>
-      <c r="L4" s="1">
-        <f t="shared" ref="L4:L12" si="2">INT(L3*2.25)</f>
-        <v>2</v>
-      </c>
-      <c r="M4" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="N4" s="1">
-        <v>1</v>
-      </c>
-      <c r="O4" s="1">
-        <v>1</v>
-      </c>
-      <c r="P4" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="9">
-        <v>358</v>
-      </c>
-      <c r="E5" s="9">
-        <v>52</v>
-      </c>
-      <c r="F5" s="6">
-        <v>0</v>
-      </c>
-      <c r="G5" s="6">
-        <v>0</v>
-      </c>
-      <c r="H5" s="7">
-        <v>2</v>
-      </c>
-      <c r="I5" s="7">
-        <v>1</v>
-      </c>
-      <c r="J5" s="5">
-        <f t="shared" si="1"/>
-        <v>1.9</v>
-      </c>
-      <c r="K5" s="6">
-        <v>3</v>
-      </c>
-      <c r="L5" s="1">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="M5" s="6">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="N5" s="1">
-        <v>1</v>
-      </c>
-      <c r="O5" s="1">
-        <v>1</v>
-      </c>
-      <c r="P5" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="9">
-        <v>447</v>
-      </c>
-      <c r="E6" s="9">
-        <v>65</v>
-      </c>
-      <c r="F6" s="6">
-        <v>0</v>
-      </c>
-      <c r="G6" s="6">
-        <v>0</v>
-      </c>
-      <c r="H6" s="7">
-        <v>2</v>
-      </c>
-      <c r="I6" s="7">
-        <v>1</v>
-      </c>
-      <c r="J6" s="5">
-        <f t="shared" si="1"/>
-        <v>1.8499999999999999</v>
-      </c>
-      <c r="K6" s="6">
-        <v>3</v>
-      </c>
-      <c r="L6" s="1">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="M6" s="6">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="N6" s="1">
-        <v>1</v>
-      </c>
-      <c r="O6" s="1">
-        <v>1</v>
-      </c>
-      <c r="P6" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" s="9">
-        <v>558</v>
-      </c>
-      <c r="E7" s="9">
-        <v>81</v>
-      </c>
-      <c r="F7" s="6">
-        <v>0</v>
-      </c>
-      <c r="G7" s="6">
-        <v>0</v>
-      </c>
-      <c r="H7" s="7">
-        <v>2</v>
-      </c>
-      <c r="I7" s="7">
-        <v>1</v>
-      </c>
-      <c r="J7" s="5">
-        <f t="shared" si="1"/>
-        <v>1.7999999999999998</v>
-      </c>
-      <c r="K7" s="6">
-        <v>3</v>
-      </c>
-      <c r="L7" s="1">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="M7" s="6">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="N7" s="1">
-        <v>1</v>
-      </c>
-      <c r="O7" s="1">
-        <v>1</v>
-      </c>
-      <c r="P7" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1</v>
-      </c>
-      <c r="D8" s="9">
-        <v>697</v>
-      </c>
-      <c r="E8" s="9">
-        <v>101</v>
-      </c>
-      <c r="F8" s="6">
-        <v>0</v>
-      </c>
-      <c r="G8" s="6">
-        <v>0</v>
-      </c>
-      <c r="H8" s="7">
-        <v>2</v>
-      </c>
-      <c r="I8" s="7">
-        <v>1</v>
-      </c>
-      <c r="J8" s="5">
-        <f t="shared" si="1"/>
-        <v>1.7499999999999998</v>
-      </c>
-      <c r="K8" s="6">
-        <v>3</v>
-      </c>
-      <c r="L8" s="1">
-        <f t="shared" si="2"/>
-        <v>45</v>
-      </c>
-      <c r="M8" s="6">
-        <f t="shared" si="0"/>
-        <v>135</v>
-      </c>
-      <c r="N8" s="1">
-        <v>1</v>
-      </c>
-      <c r="O8" s="1">
-        <v>1</v>
-      </c>
-      <c r="P8" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1</v>
-      </c>
-      <c r="D9" s="9">
-        <v>871</v>
-      </c>
-      <c r="E9" s="9">
-        <v>126</v>
-      </c>
-      <c r="F9" s="6">
-        <v>0</v>
-      </c>
-      <c r="G9" s="6">
-        <v>0</v>
-      </c>
-      <c r="H9" s="7">
-        <v>2</v>
-      </c>
-      <c r="I9" s="7">
-        <v>1</v>
-      </c>
-      <c r="J9" s="5">
-        <f t="shared" si="1"/>
-        <v>1.6999999999999997</v>
-      </c>
-      <c r="K9" s="6">
-        <v>3</v>
-      </c>
-      <c r="L9" s="1">
-        <f t="shared" si="2"/>
-        <v>101</v>
-      </c>
-      <c r="M9" s="6">
-        <f t="shared" si="0"/>
-        <v>303</v>
-      </c>
-      <c r="N9" s="1">
-        <v>1</v>
-      </c>
-      <c r="O9" s="1">
-        <v>1</v>
-      </c>
-      <c r="P9" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1</v>
-      </c>
-      <c r="D10" s="9">
-        <v>1088</v>
-      </c>
-      <c r="E10" s="9">
-        <v>157</v>
-      </c>
-      <c r="F10" s="6">
-        <v>0</v>
-      </c>
-      <c r="G10" s="6">
-        <v>0</v>
-      </c>
-      <c r="H10" s="7">
-        <v>2</v>
-      </c>
-      <c r="I10" s="7">
-        <v>1</v>
-      </c>
-      <c r="J10" s="5">
-        <f t="shared" si="1"/>
-        <v>1.6499999999999997</v>
-      </c>
-      <c r="K10" s="6">
-        <v>3</v>
-      </c>
-      <c r="L10" s="1">
-        <f t="shared" si="2"/>
-        <v>227</v>
-      </c>
-      <c r="M10" s="6">
-        <f t="shared" si="0"/>
-        <v>681</v>
-      </c>
-      <c r="N10" s="1">
-        <v>1</v>
-      </c>
-      <c r="O10" s="1">
-        <v>1</v>
-      </c>
-      <c r="P10" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1</v>
-      </c>
-      <c r="D11" s="9">
-        <v>1360</v>
-      </c>
-      <c r="E11" s="9">
-        <v>196</v>
-      </c>
-      <c r="F11" s="6">
-        <v>0</v>
-      </c>
-      <c r="G11" s="6">
-        <v>0</v>
-      </c>
-      <c r="H11" s="7">
-        <v>2</v>
-      </c>
-      <c r="I11" s="7">
-        <v>1</v>
-      </c>
-      <c r="J11" s="5">
-        <f t="shared" si="1"/>
-        <v>1.5999999999999996</v>
-      </c>
-      <c r="K11" s="6">
-        <v>3</v>
-      </c>
-      <c r="L11" s="1">
-        <f t="shared" si="2"/>
-        <v>510</v>
-      </c>
-      <c r="M11" s="6">
-        <f t="shared" si="0"/>
-        <v>1530</v>
-      </c>
-      <c r="N11" s="1">
-        <v>1</v>
-      </c>
-      <c r="O11" s="1">
-        <v>1</v>
-      </c>
-      <c r="P11" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="6">
-        <v>10</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1</v>
-      </c>
-      <c r="D12" s="9">
-        <v>1700</v>
-      </c>
-      <c r="E12" s="9">
-        <v>245</v>
-      </c>
-      <c r="F12" s="6">
-        <v>0</v>
-      </c>
-      <c r="G12" s="6">
-        <v>0</v>
-      </c>
-      <c r="H12" s="7">
-        <v>2</v>
-      </c>
-      <c r="I12" s="7">
-        <v>1</v>
-      </c>
-      <c r="J12" s="5">
-        <f t="shared" si="1"/>
-        <v>1.5499999999999996</v>
-      </c>
-      <c r="K12" s="6">
-        <v>3</v>
-      </c>
-      <c r="L12" s="1">
-        <f t="shared" si="2"/>
-        <v>1147</v>
-      </c>
-      <c r="M12" s="6">
-        <f t="shared" si="0"/>
-        <v>3441</v>
-      </c>
-      <c r="N12" s="1">
-        <v>1</v>
-      </c>
-      <c r="O12" s="1">
-        <v>1</v>
-      </c>
-      <c r="P12" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
-    <row r="33" ht="15.75" customHeight="1"/>
-    <row r="34" ht="15.75" customHeight="1"/>
-    <row r="35" ht="15.75" customHeight="1"/>
-    <row r="36" ht="15.75" customHeight="1"/>
-    <row r="37" ht="15.75" customHeight="1"/>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="15.75" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
-    <row r="49" ht="15.75" customHeight="1"/>
-    <row r="50" ht="15.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1"/>
-    <row r="52" ht="15.75" customHeight="1"/>
-    <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
-    <row r="81" ht="15.75" customHeight="1"/>
-    <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1"/>
-    <row r="85" ht="15.75" customHeight="1"/>
-    <row r="86" ht="15.75" customHeight="1"/>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1"/>
-    <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="15.75" customHeight="1"/>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
-    <row r="97" ht="15.75" customHeight="1"/>
-    <row r="98" ht="15.75" customHeight="1"/>
-    <row r="99" ht="15.75" customHeight="1"/>
-    <row r="100" ht="15.75" customHeight="1"/>
-    <row r="101" ht="15.75" customHeight="1"/>
-    <row r="102" ht="15.75" customHeight="1"/>
-    <row r="103" ht="15.75" customHeight="1"/>
-    <row r="104" ht="15.75" customHeight="1"/>
-    <row r="105" ht="15.75" customHeight="1"/>
-    <row r="106" ht="15.75" customHeight="1"/>
-    <row r="107" ht="15.75" customHeight="1"/>
-    <row r="108" ht="15.75" customHeight="1"/>
-    <row r="109" ht="15.75" customHeight="1"/>
-    <row r="110" ht="15.75" customHeight="1"/>
-    <row r="111" ht="15.75" customHeight="1"/>
-    <row r="112" ht="15.75" customHeight="1"/>
-    <row r="113" ht="15.75" customHeight="1"/>
-    <row r="114" ht="15.75" customHeight="1"/>
-    <row r="115" ht="15.75" customHeight="1"/>
-    <row r="116" ht="15.75" customHeight="1"/>
-    <row r="117" ht="15.75" customHeight="1"/>
-    <row r="118" ht="15.75" customHeight="1"/>
-    <row r="119" ht="15.75" customHeight="1"/>
-    <row r="120" ht="15.75" customHeight="1"/>
-    <row r="121" ht="15.75" customHeight="1"/>
-    <row r="122" ht="15.75" customHeight="1"/>
-    <row r="123" ht="15.75" customHeight="1"/>
-    <row r="124" ht="15.75" customHeight="1"/>
-    <row r="125" ht="15.75" customHeight="1"/>
-    <row r="126" ht="15.75" customHeight="1"/>
-    <row r="127" ht="15.75" customHeight="1"/>
-    <row r="128" ht="15.75" customHeight="1"/>
-    <row r="129" ht="15.75" customHeight="1"/>
-    <row r="130" ht="15.75" customHeight="1"/>
-    <row r="131" ht="15.75" customHeight="1"/>
-    <row r="132" ht="15.75" customHeight="1"/>
-    <row r="133" ht="15.75" customHeight="1"/>
-    <row r="134" ht="15.75" customHeight="1"/>
-    <row r="135" ht="15.75" customHeight="1"/>
-    <row r="136" ht="15.75" customHeight="1"/>
-    <row r="137" ht="15.75" customHeight="1"/>
-    <row r="138" ht="15.75" customHeight="1"/>
-    <row r="139" ht="15.75" customHeight="1"/>
-    <row r="140" ht="15.75" customHeight="1"/>
-    <row r="141" ht="15.75" customHeight="1"/>
-    <row r="142" ht="15.75" customHeight="1"/>
-    <row r="143" ht="15.75" customHeight="1"/>
-    <row r="144" ht="15.75" customHeight="1"/>
-    <row r="145" ht="15.75" customHeight="1"/>
-    <row r="146" ht="15.75" customHeight="1"/>
-    <row r="147" ht="15.75" customHeight="1"/>
-    <row r="148" ht="15.75" customHeight="1"/>
-    <row r="149" ht="15.75" customHeight="1"/>
-    <row r="150" ht="15.75" customHeight="1"/>
-    <row r="151" ht="15.75" customHeight="1"/>
-    <row r="152" ht="15.75" customHeight="1"/>
-    <row r="153" ht="15.75" customHeight="1"/>
-    <row r="154" ht="15.75" customHeight="1"/>
-    <row r="155" ht="15.75" customHeight="1"/>
-    <row r="156" ht="15.75" customHeight="1"/>
-    <row r="157" ht="15.75" customHeight="1"/>
-    <row r="158" ht="15.75" customHeight="1"/>
-    <row r="159" ht="15.75" customHeight="1"/>
-    <row r="160" ht="15.75" customHeight="1"/>
-    <row r="161" ht="15.75" customHeight="1"/>
-    <row r="162" ht="15.75" customHeight="1"/>
-    <row r="163" ht="15.75" customHeight="1"/>
-    <row r="164" ht="15.75" customHeight="1"/>
-    <row r="165" ht="15.75" customHeight="1"/>
-    <row r="166" ht="15.75" customHeight="1"/>
-    <row r="167" ht="15.75" customHeight="1"/>
-    <row r="168" ht="15.75" customHeight="1"/>
-    <row r="169" ht="15.75" customHeight="1"/>
-    <row r="170" ht="15.75" customHeight="1"/>
-    <row r="171" ht="15.75" customHeight="1"/>
-    <row r="172" ht="15.75" customHeight="1"/>
-    <row r="173" ht="15.75" customHeight="1"/>
-    <row r="174" ht="15.75" customHeight="1"/>
-    <row r="175" ht="15.75" customHeight="1"/>
-    <row r="176" ht="15.75" customHeight="1"/>
-    <row r="177" ht="15.75" customHeight="1"/>
-    <row r="178" ht="15.75" customHeight="1"/>
-    <row r="179" ht="15.75" customHeight="1"/>
-    <row r="180" ht="15.75" customHeight="1"/>
-    <row r="181" ht="15.75" customHeight="1"/>
-    <row r="182" ht="15.75" customHeight="1"/>
-    <row r="183" ht="15.75" customHeight="1"/>
-    <row r="184" ht="15.75" customHeight="1"/>
-    <row r="185" ht="15.75" customHeight="1"/>
-    <row r="186" ht="15.75" customHeight="1"/>
-    <row r="187" ht="15.75" customHeight="1"/>
-    <row r="188" ht="15.75" customHeight="1"/>
-    <row r="189" ht="15.75" customHeight="1"/>
-    <row r="190" ht="15.75" customHeight="1"/>
-    <row r="191" ht="15.75" customHeight="1"/>
-    <row r="192" ht="15.75" customHeight="1"/>
-    <row r="193" ht="15.75" customHeight="1"/>
-    <row r="194" ht="15.75" customHeight="1"/>
-    <row r="195" ht="15.75" customHeight="1"/>
-    <row r="196" ht="15.75" customHeight="1"/>
-    <row r="197" ht="15.75" customHeight="1"/>
-    <row r="198" ht="15.75" customHeight="1"/>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q1000"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
     <col min="3" max="3" width="20.85546875" customWidth="1"/>
     <col min="4" max="4" width="17.42578125" customWidth="1"/>
     <col min="5" max="5" width="16.5703125" customWidth="1"/>
@@ -9449,16 +7776,1671 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" customWidth="1"/>
+    <col min="7" max="7" width="28.42578125" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" customWidth="1"/>
+    <col min="11" max="11" width="27.28515625" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" customWidth="1"/>
+    <col min="15" max="15" width="16.42578125" customWidth="1"/>
+    <col min="16" max="16" width="22.42578125" customWidth="1"/>
+    <col min="17" max="28" width="8.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="9">
+        <v>1</v>
+      </c>
+      <c r="D3" s="9">
+        <v>158</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
+        <v>2</v>
+      </c>
+      <c r="I3" s="7">
+        <v>1</v>
+      </c>
+      <c r="J3" s="5">
+        <v>2</v>
+      </c>
+      <c r="K3" s="6">
+        <v>3</v>
+      </c>
+      <c r="L3" s="8">
+        <f>INT(Data_Enemy_Bunny!L12*2.25)</f>
+        <v>2580</v>
+      </c>
+      <c r="M3" s="6">
+        <f>L3*7</f>
+        <v>18060</v>
+      </c>
+      <c r="N3" s="1">
+        <v>3</v>
+      </c>
+      <c r="O3" s="1">
+        <v>1</v>
+      </c>
+      <c r="P3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="9">
+        <v>2502</v>
+      </c>
+      <c r="D4" s="9">
+        <v>197</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+      <c r="H4" s="7">
+        <v>2</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1</v>
+      </c>
+      <c r="J4" s="5">
+        <f t="shared" ref="J4:J12" si="0">J3-0.05</f>
+        <v>1.95</v>
+      </c>
+      <c r="K4" s="6">
+        <v>3</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1</v>
+      </c>
+      <c r="M4" s="6">
+        <f>L4*7</f>
+        <v>7</v>
+      </c>
+      <c r="N4" s="1">
+        <v>1</v>
+      </c>
+      <c r="O4" s="1">
+        <v>1</v>
+      </c>
+      <c r="P4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="9">
+        <v>3127</v>
+      </c>
+      <c r="D5" s="9">
+        <v>246</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
+      <c r="H5" s="7">
+        <v>2</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1</v>
+      </c>
+      <c r="J5" s="5">
+        <f t="shared" si="0"/>
+        <v>1.9</v>
+      </c>
+      <c r="K5" s="6">
+        <v>3</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" ref="L3:L12" si="1">INT(L4*2.25)</f>
+        <v>2</v>
+      </c>
+      <c r="M5" s="6">
+        <v>1</v>
+      </c>
+      <c r="N5" s="1">
+        <v>1</v>
+      </c>
+      <c r="O5" s="1">
+        <v>1</v>
+      </c>
+      <c r="P5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="9">
+        <v>3908</v>
+      </c>
+      <c r="D6" s="9">
+        <v>307</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="7">
+        <v>2</v>
+      </c>
+      <c r="I6" s="7">
+        <v>1</v>
+      </c>
+      <c r="J6" s="5">
+        <f t="shared" si="0"/>
+        <v>1.8499999999999999</v>
+      </c>
+      <c r="K6" s="6">
+        <v>3</v>
+      </c>
+      <c r="L6" s="1">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="M6" s="6">
+        <v>1</v>
+      </c>
+      <c r="N6" s="1">
+        <v>1</v>
+      </c>
+      <c r="O6" s="1">
+        <v>1</v>
+      </c>
+      <c r="P6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="9">
+        <v>4885</v>
+      </c>
+      <c r="D7" s="9">
+        <v>383</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0</v>
+      </c>
+      <c r="H7" s="7">
+        <v>2</v>
+      </c>
+      <c r="I7" s="7">
+        <v>1</v>
+      </c>
+      <c r="J7" s="5">
+        <f t="shared" si="0"/>
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="K7" s="6">
+        <v>3</v>
+      </c>
+      <c r="L7" s="1">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="M7" s="6">
+        <v>1</v>
+      </c>
+      <c r="N7" s="1">
+        <v>1</v>
+      </c>
+      <c r="O7" s="1">
+        <v>1</v>
+      </c>
+      <c r="P7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="9">
+        <v>6106</v>
+      </c>
+      <c r="D8" s="9">
+        <v>478</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0</v>
+      </c>
+      <c r="H8" s="7">
+        <v>2</v>
+      </c>
+      <c r="I8" s="7">
+        <v>1</v>
+      </c>
+      <c r="J8" s="5">
+        <f t="shared" si="0"/>
+        <v>1.7499999999999998</v>
+      </c>
+      <c r="K8" s="6">
+        <v>3</v>
+      </c>
+      <c r="L8" s="1">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="M8" s="6">
+        <v>1</v>
+      </c>
+      <c r="N8" s="1">
+        <v>1</v>
+      </c>
+      <c r="O8" s="1">
+        <v>1</v>
+      </c>
+      <c r="P8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="9">
+        <v>7632</v>
+      </c>
+      <c r="D9" s="9">
+        <v>597</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0</v>
+      </c>
+      <c r="H9" s="7">
+        <v>2</v>
+      </c>
+      <c r="I9" s="7">
+        <v>1</v>
+      </c>
+      <c r="J9" s="5">
+        <f t="shared" si="0"/>
+        <v>1.6999999999999997</v>
+      </c>
+      <c r="K9" s="6">
+        <v>3</v>
+      </c>
+      <c r="L9" s="1">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="M9" s="6">
+        <f>L9*3</f>
+        <v>135</v>
+      </c>
+      <c r="N9" s="1">
+        <v>1</v>
+      </c>
+      <c r="O9" s="1">
+        <v>1</v>
+      </c>
+      <c r="P9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="9">
+        <v>9540</v>
+      </c>
+      <c r="D10" s="9">
+        <v>746</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0</v>
+      </c>
+      <c r="H10" s="7">
+        <v>2</v>
+      </c>
+      <c r="I10" s="7">
+        <v>1</v>
+      </c>
+      <c r="J10" s="5">
+        <f t="shared" si="0"/>
+        <v>1.6499999999999997</v>
+      </c>
+      <c r="K10" s="6">
+        <v>3</v>
+      </c>
+      <c r="L10" s="1">
+        <f t="shared" si="1"/>
+        <v>101</v>
+      </c>
+      <c r="M10" s="6">
+        <f t="shared" ref="M3:M12" si="2">L10*3</f>
+        <v>303</v>
+      </c>
+      <c r="N10" s="1">
+        <v>1</v>
+      </c>
+      <c r="O10" s="1">
+        <v>1</v>
+      </c>
+      <c r="P10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="9">
+        <v>11925</v>
+      </c>
+      <c r="D11" s="9">
+        <v>932</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0</v>
+      </c>
+      <c r="H11" s="7">
+        <v>2</v>
+      </c>
+      <c r="I11" s="7">
+        <v>1</v>
+      </c>
+      <c r="J11" s="5">
+        <f t="shared" si="0"/>
+        <v>1.5999999999999996</v>
+      </c>
+      <c r="K11" s="6">
+        <v>3</v>
+      </c>
+      <c r="L11" s="1">
+        <f t="shared" si="1"/>
+        <v>227</v>
+      </c>
+      <c r="M11" s="6">
+        <f t="shared" si="2"/>
+        <v>681</v>
+      </c>
+      <c r="N11" s="1">
+        <v>1</v>
+      </c>
+      <c r="O11" s="1">
+        <v>1</v>
+      </c>
+      <c r="P11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="6">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="9">
+        <v>14906</v>
+      </c>
+      <c r="D12" s="9">
+        <v>1165</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0</v>
+      </c>
+      <c r="H12" s="7">
+        <v>2</v>
+      </c>
+      <c r="I12" s="7">
+        <v>1</v>
+      </c>
+      <c r="J12" s="5">
+        <f t="shared" si="0"/>
+        <v>1.5499999999999996</v>
+      </c>
+      <c r="K12" s="6">
+        <v>3</v>
+      </c>
+      <c r="L12" s="1">
+        <f t="shared" si="1"/>
+        <v>510</v>
+      </c>
+      <c r="M12" s="6">
+        <f t="shared" si="2"/>
+        <v>1530</v>
+      </c>
+      <c r="N12" s="1">
+        <v>1</v>
+      </c>
+      <c r="O12" s="1">
+        <v>1</v>
+      </c>
+      <c r="P12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75" customHeight="1"/>
+    <row r="22" ht="15.75" customHeight="1"/>
+    <row r="23" ht="15.75" customHeight="1"/>
+    <row r="24" ht="15.75" customHeight="1"/>
+    <row r="25" ht="15.75" customHeight="1"/>
+    <row r="26" ht="15.75" customHeight="1"/>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -12831,7 +12813,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0"/>
+    <sheetView topLeftCell="A13" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>

--- a/Assets/8_Data/1_EnemyData.xlsx
+++ b/Assets/8_Data/1_EnemyData.xlsx
@@ -794,11 +794,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d\.m"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -864,30 +871,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7779,8 +7787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -7938,12 +7946,10 @@
         <v>3</v>
       </c>
       <c r="L3" s="8">
-        <f>INT(Data_Enemy_Bunny!L12*2.25)</f>
-        <v>2580</v>
+        <v>2</v>
       </c>
       <c r="M3" s="6">
-        <f>L3*7</f>
-        <v>18060</v>
+        <v>4</v>
       </c>
       <c r="N3" s="1">
         <v>3</v>
@@ -7987,7 +7993,6 @@
         <v>1</v>
       </c>
       <c r="J4" s="5">
-        <f t="shared" ref="J4:J12" si="0">J3-0.05</f>
         <v>1.95</v>
       </c>
       <c r="K4" s="6">
@@ -7997,8 +8002,7 @@
         <v>1</v>
       </c>
       <c r="M4" s="6">
-        <f>L4*7</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N4" s="1">
         <v>1</v>
@@ -8042,18 +8046,17 @@
         <v>1</v>
       </c>
       <c r="J5" s="5">
-        <f t="shared" si="0"/>
         <v>1.9</v>
       </c>
       <c r="K5" s="6">
         <v>3</v>
       </c>
       <c r="L5" s="1">
-        <f t="shared" ref="L3:L12" si="1">INT(L4*2.25)</f>
+        <f t="shared" ref="L5:L12" si="0">INT(L4*2.25)</f>
         <v>2</v>
       </c>
       <c r="M5" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N5" s="1">
         <v>1</v>
@@ -8097,18 +8100,17 @@
         <v>1</v>
       </c>
       <c r="J6" s="5">
-        <f t="shared" si="0"/>
         <v>1.8499999999999999</v>
       </c>
       <c r="K6" s="6">
         <v>3</v>
       </c>
       <c r="L6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="M6" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N6" s="1">
         <v>1</v>
@@ -8152,18 +8154,17 @@
         <v>1</v>
       </c>
       <c r="J7" s="5">
-        <f t="shared" si="0"/>
-        <v>1.7999999999999998</v>
+        <v>1.8</v>
       </c>
       <c r="K7" s="6">
         <v>3</v>
       </c>
       <c r="L7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="M7" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N7" s="1">
         <v>1</v>
@@ -8207,18 +8208,17 @@
         <v>1</v>
       </c>
       <c r="J8" s="5">
-        <f t="shared" si="0"/>
         <v>1.7499999999999998</v>
       </c>
       <c r="K8" s="6">
         <v>3</v>
       </c>
       <c r="L8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="M8" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N8" s="1">
         <v>1</v>
@@ -8262,19 +8262,17 @@
         <v>1</v>
       </c>
       <c r="J9" s="5">
-        <f t="shared" si="0"/>
         <v>1.6999999999999997</v>
       </c>
       <c r="K9" s="6">
         <v>3</v>
       </c>
       <c r="L9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="M9" s="6">
-        <f>L9*3</f>
-        <v>135</v>
+        <v>4</v>
       </c>
       <c r="N9" s="1">
         <v>1</v>
@@ -8318,19 +8316,17 @@
         <v>1</v>
       </c>
       <c r="J10" s="5">
-        <f t="shared" si="0"/>
         <v>1.6499999999999997</v>
       </c>
       <c r="K10" s="6">
         <v>3</v>
       </c>
       <c r="L10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>101</v>
       </c>
       <c r="M10" s="6">
-        <f t="shared" ref="M3:M12" si="2">L10*3</f>
-        <v>303</v>
+        <v>4</v>
       </c>
       <c r="N10" s="1">
         <v>1</v>
@@ -8374,19 +8370,17 @@
         <v>1</v>
       </c>
       <c r="J11" s="5">
-        <f t="shared" si="0"/>
         <v>1.5999999999999996</v>
       </c>
       <c r="K11" s="6">
         <v>3</v>
       </c>
       <c r="L11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>227</v>
       </c>
       <c r="M11" s="6">
-        <f t="shared" si="2"/>
-        <v>681</v>
+        <v>44</v>
       </c>
       <c r="N11" s="1">
         <v>1</v>
@@ -8430,19 +8424,17 @@
         <v>1</v>
       </c>
       <c r="J12" s="5">
-        <f t="shared" si="0"/>
         <v>1.5499999999999996</v>
       </c>
       <c r="K12" s="6">
         <v>3</v>
       </c>
       <c r="L12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>510</v>
       </c>
       <c r="M12" s="6">
-        <f t="shared" si="2"/>
-        <v>1530</v>
+        <v>4</v>
       </c>
       <c r="N12" s="1">
         <v>1</v>
@@ -8456,6 +8448,9 @@
       <c r="Q12" s="1">
         <v>1</v>
       </c>
+    </row>
+    <row r="13" spans="1:17" ht="15" customHeight="1">
+      <c r="M13" s="13"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
